--- a/raw_data/20200818_saline/20200818_Sensor3_Test_4.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor3_Test_4.xlsx
@@ -1,855 +1,1271 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9D99C98-5477-48C5-A697-E83343FA30B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>3254.165613</v>
+        <v>3254.1656130000001</v>
       </c>
       <c r="B2" s="1">
-        <v>0.903935</v>
+        <v>0.90393500000000004</v>
       </c>
       <c r="C2" s="1">
-        <v>1138.570000</v>
+        <v>1138.57</v>
       </c>
       <c r="D2" s="1">
-        <v>-252.546000</v>
+        <v>-252.54599999999999</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>3264.848958</v>
       </c>
       <c r="G2" s="1">
-        <v>0.906902</v>
+        <v>0.90690199999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>1160.910000</v>
+        <v>1160.9100000000001</v>
       </c>
       <c r="I2" s="1">
-        <v>-213.122000</v>
+        <v>-213.12200000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>3275.240607</v>
+        <v>3275.2406070000002</v>
       </c>
       <c r="L2" s="1">
-        <v>0.909789</v>
+        <v>0.90978899999999996</v>
       </c>
       <c r="M2" s="1">
-        <v>1190.360000</v>
+        <v>1190.3599999999999</v>
       </c>
       <c r="N2" s="1">
-        <v>-148.903000</v>
+        <v>-148.90299999999999</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>3285.382307</v>
+        <v>3285.3823069999999</v>
       </c>
       <c r="Q2" s="1">
-        <v>0.912606</v>
+        <v>0.91260600000000003</v>
       </c>
       <c r="R2" s="1">
-        <v>1198.320000</v>
+        <v>1198.32</v>
       </c>
       <c r="S2" s="1">
-        <v>-127.302000</v>
+        <v>-127.30200000000001</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
         <v>3295.940149</v>
       </c>
       <c r="V2" s="1">
-        <v>0.915539</v>
+        <v>0.91553899999999999</v>
       </c>
       <c r="W2" s="1">
-        <v>1205.860000</v>
+        <v>1205.8599999999999</v>
       </c>
       <c r="X2" s="1">
-        <v>-106.709000</v>
+        <v>-106.709</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>3306.373990</v>
+        <v>3306.37399</v>
       </c>
       <c r="AA2" s="1">
-        <v>0.918437</v>
+        <v>0.91843699999999995</v>
       </c>
       <c r="AB2" s="1">
-        <v>1213.780000</v>
+        <v>1213.78</v>
       </c>
       <c r="AC2" s="1">
-        <v>-89.428300</v>
+        <v>-89.428299999999993</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>3317.294409</v>
+        <v>3317.2944090000001</v>
       </c>
       <c r="AF2" s="1">
-        <v>0.921471</v>
+        <v>0.92147100000000004</v>
       </c>
       <c r="AG2" s="1">
-        <v>1218.360000</v>
+        <v>1218.3599999999999</v>
       </c>
       <c r="AH2" s="1">
-        <v>-84.732400</v>
+        <v>-84.732399999999998</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>3327.123627</v>
+        <v>3327.1236269999999</v>
       </c>
       <c r="AK2" s="1">
-        <v>0.924201</v>
+        <v>0.92420100000000005</v>
       </c>
       <c r="AL2" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-87.506100</v>
+        <v>-87.506100000000004</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>3337.387346</v>
       </c>
       <c r="AP2" s="1">
-        <v>0.927052</v>
+        <v>0.92705199999999999</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1233.110000</v>
+        <v>1233.1099999999999</v>
       </c>
       <c r="AR2" s="1">
-        <v>-98.806400</v>
+        <v>-98.806399999999996</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
         <v>3347.976431</v>
       </c>
       <c r="AU2" s="1">
-        <v>0.929993</v>
+        <v>0.92999299999999996</v>
       </c>
       <c r="AV2" s="1">
-        <v>1242.770000</v>
+        <v>1242.77</v>
       </c>
       <c r="AW2" s="1">
-        <v>-117.329000</v>
+        <v>-117.32899999999999</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>3358.767890</v>
+        <v>3358.7678900000001</v>
       </c>
       <c r="AZ2" s="1">
-        <v>0.932991</v>
+        <v>0.93299100000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="BB2" s="1">
-        <v>-134.125000</v>
+        <v>-134.125</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>3369.371859</v>
+        <v>3369.3718589999999</v>
       </c>
       <c r="BE2" s="1">
-        <v>0.935937</v>
+        <v>0.93593700000000002</v>
       </c>
       <c r="BF2" s="1">
-        <v>1289.030000</v>
+        <v>1289.03</v>
       </c>
       <c r="BG2" s="1">
-        <v>-213.467000</v>
+        <v>-213.46700000000001</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>3379.982277</v>
+        <v>3379.9822770000001</v>
       </c>
       <c r="BJ2" s="1">
-        <v>0.938884</v>
+        <v>0.93888400000000005</v>
       </c>
       <c r="BK2" s="1">
-        <v>1354.880000</v>
+        <v>1354.88</v>
       </c>
       <c r="BL2" s="1">
-        <v>-346.832000</v>
+        <v>-346.83199999999999</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>3391.440854</v>
+        <v>3391.4408539999999</v>
       </c>
       <c r="BO2" s="1">
-        <v>0.942067</v>
+        <v>0.94206699999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1463.160000</v>
+        <v>1463.16</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-566.588000</v>
+        <v>-566.58799999999997</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>3401.501705</v>
+        <v>3401.5017050000001</v>
       </c>
       <c r="BT2" s="1">
-        <v>0.944862</v>
+        <v>0.94486199999999998</v>
       </c>
       <c r="BU2" s="1">
-        <v>1588.770000</v>
+        <v>1588.77</v>
       </c>
       <c r="BV2" s="1">
-        <v>-816.769000</v>
+        <v>-816.76900000000001</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
         <v>3412.209836</v>
       </c>
       <c r="BY2" s="1">
-        <v>0.947836</v>
+        <v>0.94783600000000001</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1735.900000</v>
+        <v>1735.9</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1090.260000</v>
+        <v>-1090.26</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>3423.210637</v>
+        <v>3423.2106370000001</v>
       </c>
       <c r="CD2" s="1">
-        <v>0.950892</v>
+        <v>0.95089199999999996</v>
       </c>
       <c r="CE2" s="1">
-        <v>2142.990000</v>
+        <v>2142.9899999999998</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1757.870000</v>
+        <v>-1757.87</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>3254.866940</v>
+        <v>3254.8669399999999</v>
       </c>
       <c r="B3" s="1">
-        <v>0.904130</v>
+        <v>0.90412999999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1138.540000</v>
+        <v>1138.54</v>
       </c>
       <c r="D3" s="1">
-        <v>-252.721000</v>
+        <v>-252.721</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>3265.195133</v>
+        <v>3265.1951330000002</v>
       </c>
       <c r="G3" s="1">
         <v>0.906999</v>
       </c>
       <c r="H3" s="1">
-        <v>1160.320000</v>
+        <v>1160.32</v>
       </c>
       <c r="I3" s="1">
-        <v>-213.319000</v>
+        <v>-213.31899999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>3275.596735</v>
+        <v>3275.5967350000001</v>
       </c>
       <c r="L3" s="1">
-        <v>0.909888</v>
+        <v>0.90988800000000003</v>
       </c>
       <c r="M3" s="1">
-        <v>1189.770000</v>
+        <v>1189.77</v>
       </c>
       <c r="N3" s="1">
-        <v>-149.104000</v>
+        <v>-149.10400000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>3285.745873</v>
+        <v>3285.7458729999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>0.912707</v>
+        <v>0.91270700000000005</v>
       </c>
       <c r="R3" s="1">
-        <v>1198.290000</v>
+        <v>1198.29</v>
       </c>
       <c r="S3" s="1">
-        <v>-127.401000</v>
+        <v>-127.401</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
         <v>3296.612725</v>
       </c>
       <c r="V3" s="1">
-        <v>0.915726</v>
+        <v>0.91572600000000004</v>
       </c>
       <c r="W3" s="1">
-        <v>1205.990000</v>
+        <v>1205.99</v>
       </c>
       <c r="X3" s="1">
-        <v>-106.559000</v>
+        <v>-106.559</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>3307.058998</v>
       </c>
       <c r="AA3" s="1">
-        <v>0.918627</v>
+        <v>0.91862699999999997</v>
       </c>
       <c r="AB3" s="1">
-        <v>1213.780000</v>
+        <v>1213.78</v>
       </c>
       <c r="AC3" s="1">
-        <v>-89.370900</v>
+        <v>-89.370900000000006</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>3317.693689</v>
+        <v>3317.6936890000002</v>
       </c>
       <c r="AF3" s="1">
-        <v>0.921582</v>
+        <v>0.92158200000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1218.340000</v>
+        <v>1218.3399999999999</v>
       </c>
       <c r="AH3" s="1">
-        <v>-84.723300</v>
+        <v>-84.723299999999995</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>3327.474794</v>
+        <v>3327.4747940000002</v>
       </c>
       <c r="AK3" s="1">
-        <v>0.924299</v>
+        <v>0.92429899999999998</v>
       </c>
       <c r="AL3" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-87.467700</v>
+        <v>-87.467699999999994</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>3337.749949</v>
@@ -858,375 +1274,375 @@
         <v>0.927153</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1233.090000</v>
+        <v>1233.0899999999999</v>
       </c>
       <c r="AR3" s="1">
-        <v>-98.794800</v>
+        <v>-98.794799999999995</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>3348.371770</v>
+        <v>3348.3717700000002</v>
       </c>
       <c r="AU3" s="1">
-        <v>0.930103</v>
+        <v>0.93010300000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1242.720000</v>
+        <v>1242.72</v>
       </c>
       <c r="AW3" s="1">
-        <v>-117.329000</v>
+        <v>-117.32899999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>3359.269345</v>
+        <v>3359.2693450000002</v>
       </c>
       <c r="AZ3" s="1">
-        <v>0.933130</v>
+        <v>0.93313000000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1250.830000</v>
+        <v>1250.83</v>
       </c>
       <c r="BB3" s="1">
-        <v>-134.193000</v>
+        <v>-134.19300000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>3369.798915</v>
+        <v>3369.7989149999999</v>
       </c>
       <c r="BE3" s="1">
-        <v>0.936055</v>
+        <v>0.93605499999999997</v>
       </c>
       <c r="BF3" s="1">
-        <v>1289.040000</v>
+        <v>1289.04</v>
       </c>
       <c r="BG3" s="1">
-        <v>-213.455000</v>
+        <v>-213.45500000000001</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>3380.446533</v>
+        <v>3380.4465329999998</v>
       </c>
       <c r="BJ3" s="1">
-        <v>0.939013</v>
+        <v>0.93901299999999999</v>
       </c>
       <c r="BK3" s="1">
-        <v>1354.850000</v>
+        <v>1354.85</v>
       </c>
       <c r="BL3" s="1">
-        <v>-346.865000</v>
+        <v>-346.86500000000001</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>3391.551462</v>
+        <v>3391.5514619999999</v>
       </c>
       <c r="BO3" s="1">
-        <v>0.942098</v>
+        <v>0.94209799999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1463.140000</v>
+        <v>1463.14</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-566.534000</v>
+        <v>-566.53399999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>3401.944136</v>
+        <v>3401.9441360000001</v>
       </c>
       <c r="BT3" s="1">
-        <v>0.944984</v>
+        <v>0.94498400000000005</v>
       </c>
       <c r="BU3" s="1">
-        <v>1588.760000</v>
+        <v>1588.76</v>
       </c>
       <c r="BV3" s="1">
-        <v>-816.721000</v>
+        <v>-816.721</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>3412.675092</v>
+        <v>3412.6750919999999</v>
       </c>
       <c r="BY3" s="1">
-        <v>0.947965</v>
+        <v>0.94796499999999995</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1735.960000</v>
+        <v>1735.96</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1090.360000</v>
+        <v>-1090.3599999999999</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>3423.803323</v>
+        <v>3423.8033230000001</v>
       </c>
       <c r="CD3" s="1">
-        <v>0.951056</v>
+        <v>0.95105600000000001</v>
       </c>
       <c r="CE3" s="1">
-        <v>2144.180000</v>
+        <v>2144.1799999999998</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1760.390000</v>
+        <v>-1760.39</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>3255.207194</v>
+        <v>3255.2071940000001</v>
       </c>
       <c r="B4" s="1">
-        <v>0.904224</v>
+        <v>0.90422400000000003</v>
       </c>
       <c r="C4" s="1">
-        <v>1138.630000</v>
+        <v>1138.6300000000001</v>
       </c>
       <c r="D4" s="1">
-        <v>-252.632000</v>
+        <v>-252.63200000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>3265.539854</v>
+        <v>3265.5398540000001</v>
       </c>
       <c r="G4" s="1">
-        <v>0.907094</v>
+        <v>0.90709399999999996</v>
       </c>
       <c r="H4" s="1">
-        <v>1160.990000</v>
+        <v>1160.99</v>
       </c>
       <c r="I4" s="1">
-        <v>-213.196000</v>
+        <v>-213.196</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>3275.943439</v>
+        <v>3275.9434390000001</v>
       </c>
       <c r="L4" s="1">
-        <v>0.909984</v>
+        <v>0.90998400000000002</v>
       </c>
       <c r="M4" s="1">
-        <v>1190.050000</v>
+        <v>1190.05</v>
       </c>
       <c r="N4" s="1">
-        <v>-149.225000</v>
+        <v>-149.22499999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>3286.397120</v>
+        <v>3286.3971200000001</v>
       </c>
       <c r="Q4" s="1">
-        <v>0.912888</v>
+        <v>0.91288800000000003</v>
       </c>
       <c r="R4" s="1">
-        <v>1198.240000</v>
+        <v>1198.24</v>
       </c>
       <c r="S4" s="1">
-        <v>-127.376000</v>
+        <v>-127.376</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>3296.992199</v>
+        <v>3296.9921989999998</v>
       </c>
       <c r="V4" s="1">
-        <v>0.915831</v>
+        <v>0.91583099999999995</v>
       </c>
       <c r="W4" s="1">
-        <v>1205.820000</v>
+        <v>1205.82</v>
       </c>
       <c r="X4" s="1">
-        <v>-106.539000</v>
+        <v>-106.539</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
         <v>3307.461221</v>
       </c>
       <c r="AA4" s="1">
-        <v>0.918739</v>
+        <v>0.91873899999999997</v>
       </c>
       <c r="AB4" s="1">
-        <v>1213.740000</v>
+        <v>1213.74</v>
       </c>
       <c r="AC4" s="1">
-        <v>-89.486200</v>
+        <v>-89.486199999999997</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>3318.038903</v>
+        <v>3318.0389030000001</v>
       </c>
       <c r="AF4" s="1">
-        <v>0.921677</v>
+        <v>0.92167699999999997</v>
       </c>
       <c r="AG4" s="1">
-        <v>1218.390000</v>
+        <v>1218.3900000000001</v>
       </c>
       <c r="AH4" s="1">
-        <v>-84.679900</v>
+        <v>-84.679900000000004</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>3327.820046</v>
+        <v>3327.8200459999998</v>
       </c>
       <c r="AK4" s="1">
-        <v>0.924394</v>
+        <v>0.92439400000000005</v>
       </c>
       <c r="AL4" s="1">
-        <v>1225.380000</v>
+        <v>1225.3800000000001</v>
       </c>
       <c r="AM4" s="1">
-        <v>-87.488900</v>
+        <v>-87.488900000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
         <v>3338.110541</v>
       </c>
       <c r="AP4" s="1">
-        <v>0.927253</v>
+        <v>0.92725299999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1233.080000</v>
+        <v>1233.08</v>
       </c>
       <c r="AR4" s="1">
-        <v>-98.800700</v>
+        <v>-98.800700000000006</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>3348.790398</v>
+        <v>3348.7903980000001</v>
       </c>
       <c r="AU4" s="1">
-        <v>0.930220</v>
+        <v>0.93022000000000005</v>
       </c>
       <c r="AV4" s="1">
-        <v>1242.740000</v>
+        <v>1242.74</v>
       </c>
       <c r="AW4" s="1">
-        <v>-117.314000</v>
+        <v>-117.31399999999999</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>3359.488577</v>
+        <v>3359.4885770000001</v>
       </c>
       <c r="AZ4" s="1">
-        <v>0.933191</v>
+        <v>0.93319099999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="BB4" s="1">
-        <v>-134.126000</v>
+        <v>-134.126</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>3370.101476</v>
+        <v>3370.1014759999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>0.936139</v>
+        <v>0.93613900000000005</v>
       </c>
       <c r="BF4" s="1">
-        <v>1289.040000</v>
+        <v>1289.04</v>
       </c>
       <c r="BG4" s="1">
-        <v>-213.427000</v>
+        <v>-213.42699999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>3380.833908</v>
+        <v>3380.8339080000001</v>
       </c>
       <c r="BJ4" s="1">
-        <v>0.939121</v>
+        <v>0.93912099999999998</v>
       </c>
       <c r="BK4" s="1">
-        <v>1354.850000</v>
+        <v>1354.85</v>
       </c>
       <c r="BL4" s="1">
-        <v>-346.884000</v>
+        <v>-346.88400000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>3391.982496</v>
+        <v>3391.9824960000001</v>
       </c>
       <c r="BO4" s="1">
-        <v>0.942217</v>
+        <v>0.94221699999999997</v>
       </c>
       <c r="BP4" s="1">
-        <v>1463.150000</v>
+        <v>1463.15</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-566.557000</v>
+        <v>-566.55700000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>3402.378633</v>
+        <v>3402.3786329999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>0.945105</v>
+        <v>0.94510499999999997</v>
       </c>
       <c r="BU4" s="1">
-        <v>1588.870000</v>
+        <v>1588.87</v>
       </c>
       <c r="BV4" s="1">
-        <v>-816.657000</v>
+        <v>-816.65700000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>3413.122009</v>
+        <v>3413.1220090000002</v>
       </c>
       <c r="BY4" s="1">
-        <v>0.948089</v>
+        <v>0.94808899999999996</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1735.840000</v>
+        <v>1735.84</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1090.480000</v>
+        <v>-1090.48</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
         <v>3424.343003</v>
@@ -1235,996 +1651,996 @@
         <v>0.951206</v>
       </c>
       <c r="CE4" s="1">
-        <v>2144.520000</v>
+        <v>2144.52</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1757.250000</v>
+        <v>-1757.25</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>3255.548938</v>
+        <v>3255.5489379999999</v>
       </c>
       <c r="B5" s="1">
-        <v>0.904319</v>
+        <v>0.90431899999999998</v>
       </c>
       <c r="C5" s="1">
-        <v>1138.250000</v>
+        <v>1138.25</v>
       </c>
       <c r="D5" s="1">
-        <v>-252.616000</v>
+        <v>-252.61600000000001</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>3266.193580</v>
+        <v>3266.1935800000001</v>
       </c>
       <c r="G5" s="1">
-        <v>0.907276</v>
+        <v>0.90727599999999997</v>
       </c>
       <c r="H5" s="1">
-        <v>1160.420000</v>
+        <v>1160.42</v>
       </c>
       <c r="I5" s="1">
-        <v>-212.991000</v>
+        <v>-212.99100000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>3276.382398</v>
+        <v>3276.3823980000002</v>
       </c>
       <c r="L5" s="1">
-        <v>0.910106</v>
+        <v>0.91010599999999997</v>
       </c>
       <c r="M5" s="1">
-        <v>1190.080000</v>
+        <v>1190.08</v>
       </c>
       <c r="N5" s="1">
-        <v>-149.072000</v>
+        <v>-149.072</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>3286.790944</v>
+        <v>3286.7909439999999</v>
       </c>
       <c r="Q5" s="1">
-        <v>0.912997</v>
+        <v>0.91299699999999995</v>
       </c>
       <c r="R5" s="1">
-        <v>1198.210000</v>
+        <v>1198.21</v>
       </c>
       <c r="S5" s="1">
-        <v>-127.291000</v>
+        <v>-127.291</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
         <v>3297.335427</v>
       </c>
       <c r="V5" s="1">
-        <v>0.915927</v>
+        <v>0.91592700000000005</v>
       </c>
       <c r="W5" s="1">
-        <v>1205.980000</v>
+        <v>1205.98</v>
       </c>
       <c r="X5" s="1">
-        <v>-106.598000</v>
+        <v>-106.598</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>3307.812884</v>
+        <v>3307.8128839999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>0.918837</v>
+        <v>0.91883700000000001</v>
       </c>
       <c r="AB5" s="1">
-        <v>1213.660000</v>
+        <v>1213.6600000000001</v>
       </c>
       <c r="AC5" s="1">
-        <v>-89.309000</v>
+        <v>-89.308999999999997</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>3318.383127</v>
+        <v>3318.3831270000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>0.921773</v>
+        <v>0.92177299999999995</v>
       </c>
       <c r="AG5" s="1">
-        <v>1218.340000</v>
+        <v>1218.3399999999999</v>
       </c>
       <c r="AH5" s="1">
-        <v>-84.673200</v>
+        <v>-84.673199999999994</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>3328.243593</v>
+        <v>3328.2435930000001</v>
       </c>
       <c r="AK5" s="1">
         <v>0.924512</v>
       </c>
       <c r="AL5" s="1">
-        <v>1225.370000</v>
+        <v>1225.3699999999999</v>
       </c>
       <c r="AM5" s="1">
-        <v>-87.513400</v>
+        <v>-87.513400000000004</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>3338.532604</v>
       </c>
       <c r="AP5" s="1">
-        <v>0.927370</v>
+        <v>0.92737000000000003</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1233.100000</v>
+        <v>1233.0999999999999</v>
       </c>
       <c r="AR5" s="1">
-        <v>-98.791000</v>
+        <v>-98.790999999999997</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
         <v>3349.102351</v>
       </c>
       <c r="AU5" s="1">
-        <v>0.930306</v>
+        <v>0.93030599999999997</v>
       </c>
       <c r="AV5" s="1">
-        <v>1242.750000</v>
+        <v>1242.75</v>
       </c>
       <c r="AW5" s="1">
-        <v>-117.305000</v>
+        <v>-117.30500000000001</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>3359.846688</v>
+        <v>3359.8466880000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>0.933291</v>
+        <v>0.93329099999999998</v>
       </c>
       <c r="BA5" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="BB5" s="1">
-        <v>-134.139000</v>
+        <v>-134.13900000000001</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
         <v>3370.466034</v>
       </c>
       <c r="BE5" s="1">
-        <v>0.936241</v>
+        <v>0.93624099999999999</v>
       </c>
       <c r="BF5" s="1">
-        <v>1289.060000</v>
+        <v>1289.06</v>
       </c>
       <c r="BG5" s="1">
-        <v>-213.477000</v>
+        <v>-213.477</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>3381.210405</v>
+        <v>3381.2104049999998</v>
       </c>
       <c r="BJ5" s="1">
-        <v>0.939225</v>
+        <v>0.93922499999999998</v>
       </c>
       <c r="BK5" s="1">
-        <v>1354.870000</v>
+        <v>1354.87</v>
       </c>
       <c r="BL5" s="1">
-        <v>-346.884000</v>
+        <v>-346.88400000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>3392.695771</v>
+        <v>3392.6957710000001</v>
       </c>
       <c r="BO5" s="1">
         <v>0.942415</v>
       </c>
       <c r="BP5" s="1">
-        <v>1463.150000</v>
+        <v>1463.15</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-566.558000</v>
+        <v>-566.55799999999999</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>3402.806679</v>
+        <v>3402.8066789999998</v>
       </c>
       <c r="BT5" s="1">
-        <v>0.945224</v>
+        <v>0.94522399999999995</v>
       </c>
       <c r="BU5" s="1">
-        <v>1588.700000</v>
+        <v>1588.7</v>
       </c>
       <c r="BV5" s="1">
-        <v>-816.605000</v>
+        <v>-816.60500000000002</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
         <v>3413.552009</v>
       </c>
       <c r="BY5" s="1">
-        <v>0.948209</v>
+        <v>0.94820899999999997</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1735.850000</v>
+        <v>1735.85</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1090.220000</v>
+        <v>-1090.22</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>3424.877162</v>
+        <v>3424.8771620000002</v>
       </c>
       <c r="CD5" s="1">
-        <v>0.951355</v>
+        <v>0.95135499999999995</v>
       </c>
       <c r="CE5" s="1">
-        <v>2142.890000</v>
+        <v>2142.89</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1759.210000</v>
+        <v>-1759.21</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>3256.199690</v>
+        <v>3256.1996899999999</v>
       </c>
       <c r="B6" s="1">
-        <v>0.904500</v>
+        <v>0.90449999999999997</v>
       </c>
       <c r="C6" s="1">
-        <v>1138.450000</v>
+        <v>1138.45</v>
       </c>
       <c r="D6" s="1">
-        <v>-252.761000</v>
+        <v>-252.761</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>3266.576490</v>
+        <v>3266.5764899999999</v>
       </c>
       <c r="G6" s="1">
-        <v>0.907382</v>
+        <v>0.90738200000000002</v>
       </c>
       <c r="H6" s="1">
-        <v>1160.490000</v>
+        <v>1160.49</v>
       </c>
       <c r="I6" s="1">
-        <v>-213.540000</v>
+        <v>-213.54</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>3276.642316</v>
+        <v>3276.6423159999999</v>
       </c>
       <c r="L6" s="1">
-        <v>0.910178</v>
+        <v>0.91017800000000004</v>
       </c>
       <c r="M6" s="1">
-        <v>1190.160000</v>
+        <v>1190.1600000000001</v>
       </c>
       <c r="N6" s="1">
-        <v>-149.456000</v>
+        <v>-149.45599999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>3287.141616</v>
+        <v>3287.1416159999999</v>
       </c>
       <c r="Q6" s="1">
-        <v>0.913095</v>
+        <v>0.91309499999999999</v>
       </c>
       <c r="R6" s="1">
-        <v>1198.250000</v>
+        <v>1198.25</v>
       </c>
       <c r="S6" s="1">
-        <v>-127.304000</v>
+        <v>-127.304</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>3297.680610</v>
+        <v>3297.6806099999999</v>
       </c>
       <c r="V6" s="1">
         <v>0.916022</v>
       </c>
       <c r="W6" s="1">
-        <v>1205.880000</v>
+        <v>1205.8800000000001</v>
       </c>
       <c r="X6" s="1">
-        <v>-106.549000</v>
+        <v>-106.54900000000001</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
         <v>3308.162069</v>
       </c>
       <c r="AA6" s="1">
-        <v>0.918934</v>
+        <v>0.91893400000000003</v>
       </c>
       <c r="AB6" s="1">
-        <v>1213.680000</v>
+        <v>1213.68</v>
       </c>
       <c r="AC6" s="1">
-        <v>-89.361500</v>
+        <v>-89.361500000000007</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>3318.800262</v>
+        <v>3318.8002620000002</v>
       </c>
       <c r="AF6" s="1">
-        <v>0.921889</v>
+        <v>0.92188899999999996</v>
       </c>
       <c r="AG6" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="AH6" s="1">
-        <v>-84.739200</v>
+        <v>-84.739199999999997</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>3328.521914</v>
+        <v>3328.5219139999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>0.924589</v>
+        <v>0.92458899999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM6" s="1">
-        <v>-87.496700</v>
+        <v>-87.496700000000004</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>3338.829708</v>
+        <v>3338.8297080000002</v>
       </c>
       <c r="AP6" s="1">
-        <v>0.927453</v>
+        <v>0.92745299999999997</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1233.100000</v>
+        <v>1233.0999999999999</v>
       </c>
       <c r="AR6" s="1">
-        <v>-98.796200</v>
+        <v>-98.796199999999999</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>3349.464957</v>
+        <v>3349.4649570000001</v>
       </c>
       <c r="AU6" s="1">
-        <v>0.930407</v>
+        <v>0.93040699999999998</v>
       </c>
       <c r="AV6" s="1">
-        <v>1242.730000</v>
+        <v>1242.73</v>
       </c>
       <c r="AW6" s="1">
-        <v>-117.317000</v>
+        <v>-117.31699999999999</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>3360.206783</v>
+        <v>3360.2067830000001</v>
       </c>
       <c r="AZ6" s="1">
-        <v>0.933391</v>
+        <v>0.93339099999999997</v>
       </c>
       <c r="BA6" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="BB6" s="1">
-        <v>-134.129000</v>
+        <v>-134.12899999999999</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>3370.825174</v>
+        <v>3370.8251740000001</v>
       </c>
       <c r="BE6" s="1">
-        <v>0.936340</v>
+        <v>0.93633999999999995</v>
       </c>
       <c r="BF6" s="1">
-        <v>1289.020000</v>
+        <v>1289.02</v>
       </c>
       <c r="BG6" s="1">
-        <v>-213.430000</v>
+        <v>-213.43</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>3381.959827</v>
+        <v>3381.9598270000001</v>
       </c>
       <c r="BJ6" s="1">
-        <v>0.939433</v>
+        <v>0.93943299999999996</v>
       </c>
       <c r="BK6" s="1">
-        <v>1354.860000</v>
+        <v>1354.86</v>
       </c>
       <c r="BL6" s="1">
-        <v>-346.817000</v>
+        <v>-346.81700000000001</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
         <v>3392.814809</v>
       </c>
       <c r="BO6" s="1">
-        <v>0.942449</v>
+        <v>0.94244899999999998</v>
       </c>
       <c r="BP6" s="1">
-        <v>1463.130000</v>
+        <v>1463.13</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-566.554000</v>
+        <v>-566.55399999999997</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>3403.223814</v>
+        <v>3403.2238139999999</v>
       </c>
       <c r="BT6" s="1">
-        <v>0.945340</v>
+        <v>0.94533999999999996</v>
       </c>
       <c r="BU6" s="1">
-        <v>1588.820000</v>
+        <v>1588.82</v>
       </c>
       <c r="BV6" s="1">
-        <v>-816.505000</v>
+        <v>-816.505</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>3413.974600</v>
+        <v>3413.9746</v>
       </c>
       <c r="BY6" s="1">
         <v>0.948326</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1735.840000</v>
+        <v>1735.84</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1090.260000</v>
+        <v>-1090.26</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>3425.423259</v>
+        <v>3425.4232590000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>0.951506</v>
+        <v>0.95150599999999996</v>
       </c>
       <c r="CE6" s="1">
-        <v>2144.840000</v>
+        <v>2144.84</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1759.370000</v>
+        <v>-1759.37</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>3256.574205</v>
+        <v>3256.5742049999999</v>
       </c>
       <c r="B7" s="1">
-        <v>0.904604</v>
+        <v>0.90460399999999996</v>
       </c>
       <c r="C7" s="1">
-        <v>1138.480000</v>
+        <v>1138.48</v>
       </c>
       <c r="D7" s="1">
-        <v>-252.647000</v>
+        <v>-252.64699999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>3266.920714</v>
+        <v>3266.9207139999999</v>
       </c>
       <c r="G7" s="1">
-        <v>0.907478</v>
+        <v>0.90747800000000001</v>
       </c>
       <c r="H7" s="1">
-        <v>1160.770000</v>
+        <v>1160.77</v>
       </c>
       <c r="I7" s="1">
-        <v>-213.182000</v>
+        <v>-213.18199999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>3276.989005</v>
+        <v>3276.9890049999999</v>
       </c>
       <c r="L7" s="1">
-        <v>0.910275</v>
+        <v>0.91027499999999995</v>
       </c>
       <c r="M7" s="1">
-        <v>1189.880000</v>
+        <v>1189.8800000000001</v>
       </c>
       <c r="N7" s="1">
-        <v>-149.020000</v>
+        <v>-149.02000000000001</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>3287.488354</v>
+        <v>3287.4883540000001</v>
       </c>
       <c r="Q7" s="1">
-        <v>0.913191</v>
+        <v>0.91319099999999997</v>
       </c>
       <c r="R7" s="1">
-        <v>1198.280000</v>
+        <v>1198.28</v>
       </c>
       <c r="S7" s="1">
-        <v>-127.331000</v>
+        <v>-127.331</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>3298.092289</v>
+        <v>3298.0922890000002</v>
       </c>
       <c r="V7" s="1">
-        <v>0.916137</v>
+        <v>0.91613699999999998</v>
       </c>
       <c r="W7" s="1">
-        <v>1205.980000</v>
+        <v>1205.98</v>
       </c>
       <c r="X7" s="1">
-        <v>-106.546000</v>
+        <v>-106.54600000000001</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>3308.586148</v>
+        <v>3308.5861479999999</v>
       </c>
       <c r="AA7" s="1">
-        <v>0.919052</v>
+        <v>0.91905199999999998</v>
       </c>
       <c r="AB7" s="1">
-        <v>1213.800000</v>
+        <v>1213.8</v>
       </c>
       <c r="AC7" s="1">
-        <v>-89.437500</v>
+        <v>-89.4375</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>3319.074581</v>
+        <v>3319.0745809999999</v>
       </c>
       <c r="AF7" s="1">
-        <v>0.921965</v>
+        <v>0.92196500000000003</v>
       </c>
       <c r="AG7" s="1">
-        <v>1218.400000</v>
+        <v>1218.4000000000001</v>
       </c>
       <c r="AH7" s="1">
-        <v>-84.672200</v>
+        <v>-84.672200000000004</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>3328.873050</v>
+        <v>3328.8730500000001</v>
       </c>
       <c r="AK7" s="1">
-        <v>0.924687</v>
+        <v>0.92468700000000004</v>
       </c>
       <c r="AL7" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-87.500200</v>
+        <v>-87.500200000000007</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>3339.192283</v>
+        <v>3339.1922829999999</v>
       </c>
       <c r="AP7" s="1">
-        <v>0.927553</v>
+        <v>0.92755299999999996</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1233.090000</v>
+        <v>1233.0899999999999</v>
       </c>
       <c r="AR7" s="1">
-        <v>-98.792900</v>
+        <v>-98.792900000000003</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>3349.836925</v>
+        <v>3349.8369250000001</v>
       </c>
       <c r="AU7" s="1">
-        <v>0.930510</v>
+        <v>0.93050999999999995</v>
       </c>
       <c r="AV7" s="1">
-        <v>1242.740000</v>
+        <v>1242.74</v>
       </c>
       <c r="AW7" s="1">
-        <v>-117.334000</v>
+        <v>-117.334</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>3360.925022</v>
+        <v>3360.9250219999999</v>
       </c>
       <c r="AZ7" s="1">
-        <v>0.933590</v>
+        <v>0.93359000000000003</v>
       </c>
       <c r="BA7" s="1">
-        <v>1250.830000</v>
+        <v>1250.83</v>
       </c>
       <c r="BB7" s="1">
-        <v>-134.144000</v>
+        <v>-134.14400000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
         <v>3371.542848</v>
       </c>
       <c r="BE7" s="1">
-        <v>0.936540</v>
+        <v>0.93654000000000004</v>
       </c>
       <c r="BF7" s="1">
-        <v>1289.040000</v>
+        <v>1289.04</v>
       </c>
       <c r="BG7" s="1">
-        <v>-213.440000</v>
+        <v>-213.44</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>3382.334837</v>
+        <v>3382.3348369999999</v>
       </c>
       <c r="BJ7" s="1">
-        <v>0.939537</v>
+        <v>0.93953699999999996</v>
       </c>
       <c r="BK7" s="1">
-        <v>1354.840000</v>
+        <v>1354.84</v>
       </c>
       <c r="BL7" s="1">
-        <v>-346.883000</v>
+        <v>-346.88299999999998</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>3393.222980</v>
+        <v>3393.22298</v>
       </c>
       <c r="BO7" s="1">
-        <v>0.942562</v>
+        <v>0.94256200000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1463.180000</v>
+        <v>1463.18</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-566.593000</v>
+        <v>-566.59299999999996</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>3403.650373</v>
+        <v>3403.6503729999999</v>
       </c>
       <c r="BT7" s="1">
-        <v>0.945458</v>
+        <v>0.94545800000000002</v>
       </c>
       <c r="BU7" s="1">
-        <v>1588.780000</v>
+        <v>1588.78</v>
       </c>
       <c r="BV7" s="1">
-        <v>-816.458000</v>
+        <v>-816.45799999999997</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
         <v>3414.693831</v>
       </c>
       <c r="BY7" s="1">
-        <v>0.948526</v>
+        <v>0.94852599999999998</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1735.910000</v>
+        <v>1735.91</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1090.320000</v>
+        <v>-1090.32</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>3426.257528</v>
+        <v>3426.2575280000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>0.951738</v>
+        <v>0.95173799999999997</v>
       </c>
       <c r="CE7" s="1">
-        <v>2143.290000</v>
+        <v>2143.29</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1759.550000</v>
+        <v>-1759.55</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>3256.915417</v>
+        <v>3256.9154170000002</v>
       </c>
       <c r="B8" s="1">
-        <v>0.904699</v>
+        <v>0.90469900000000003</v>
       </c>
       <c r="C8" s="1">
-        <v>1138.450000</v>
+        <v>1138.45</v>
       </c>
       <c r="D8" s="1">
-        <v>-252.775000</v>
+        <v>-252.77500000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>3267.265466</v>
+        <v>3267.2654659999998</v>
       </c>
       <c r="G8" s="1">
-        <v>0.907574</v>
+        <v>0.90757399999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1161.020000</v>
+        <v>1161.02</v>
       </c>
       <c r="I8" s="1">
-        <v>-213.245000</v>
+        <v>-213.245</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>3277.407167</v>
+        <v>3277.4071669999998</v>
       </c>
       <c r="L8" s="1">
-        <v>0.910391</v>
+        <v>0.91039099999999995</v>
       </c>
       <c r="M8" s="1">
-        <v>1189.970000</v>
+        <v>1189.97</v>
       </c>
       <c r="N8" s="1">
-        <v>-149.193000</v>
+        <v>-149.19300000000001</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>3287.909423</v>
+        <v>3287.9094230000001</v>
       </c>
       <c r="Q8" s="1">
-        <v>0.913308</v>
+        <v>0.91330800000000001</v>
       </c>
       <c r="R8" s="1">
-        <v>1198.320000</v>
+        <v>1198.32</v>
       </c>
       <c r="S8" s="1">
-        <v>-127.322000</v>
+        <v>-127.322</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>3298.382485</v>
+        <v>3298.3824850000001</v>
       </c>
       <c r="V8" s="1">
-        <v>0.916217</v>
+        <v>0.91621699999999995</v>
       </c>
       <c r="W8" s="1">
-        <v>1205.990000</v>
+        <v>1205.99</v>
       </c>
       <c r="X8" s="1">
-        <v>-106.504000</v>
+        <v>-106.504</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>3308.875315</v>
+        <v>3308.8753149999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>0.919132</v>
+        <v>0.91913199999999995</v>
       </c>
       <c r="AB8" s="1">
-        <v>1213.770000</v>
+        <v>1213.77</v>
       </c>
       <c r="AC8" s="1">
-        <v>-89.256200</v>
+        <v>-89.256200000000007</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>3319.415797</v>
+        <v>3319.4157970000001</v>
       </c>
       <c r="AF8" s="1">
-        <v>0.922060</v>
+        <v>0.92205999999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>1218.350000</v>
+        <v>1218.3499999999999</v>
       </c>
       <c r="AH8" s="1">
-        <v>-84.708000</v>
+        <v>-84.707999999999998</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>3329.222031</v>
+        <v>3329.2220309999998</v>
       </c>
       <c r="AK8" s="1">
-        <v>0.924784</v>
+        <v>0.92478400000000005</v>
       </c>
       <c r="AL8" s="1">
-        <v>1225.360000</v>
+        <v>1225.3599999999999</v>
       </c>
       <c r="AM8" s="1">
-        <v>-87.490000</v>
+        <v>-87.49</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>3339.554375</v>
+        <v>3339.5543750000002</v>
       </c>
       <c r="AP8" s="1">
-        <v>0.927654</v>
+        <v>0.92765399999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1233.090000</v>
+        <v>1233.0899999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-98.840800</v>
+        <v>-98.840800000000002</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>3350.557645</v>
+        <v>3350.5576449999999</v>
       </c>
       <c r="AU8" s="1">
-        <v>0.930710</v>
+        <v>0.93071000000000004</v>
       </c>
       <c r="AV8" s="1">
-        <v>1242.750000</v>
+        <v>1242.75</v>
       </c>
       <c r="AW8" s="1">
-        <v>-117.324000</v>
+        <v>-117.324</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>3361.283597</v>
+        <v>3361.2835970000001</v>
       </c>
       <c r="AZ8" s="1">
-        <v>0.933690</v>
+        <v>0.93369000000000002</v>
       </c>
       <c r="BA8" s="1">
-        <v>1250.860000</v>
+        <v>1250.8599999999999</v>
       </c>
       <c r="BB8" s="1">
-        <v>-134.133000</v>
+        <v>-134.13300000000001</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>3371.909424</v>
+        <v>3371.9094239999999</v>
       </c>
       <c r="BE8" s="1">
-        <v>0.936642</v>
+        <v>0.93664199999999997</v>
       </c>
       <c r="BF8" s="1">
-        <v>1289.040000</v>
+        <v>1289.04</v>
       </c>
       <c r="BG8" s="1">
-        <v>-213.453000</v>
+        <v>-213.453</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>3382.710300</v>
+        <v>3382.7103000000002</v>
       </c>
       <c r="BJ8" s="1">
-        <v>0.939642</v>
+        <v>0.93964199999999998</v>
       </c>
       <c r="BK8" s="1">
-        <v>1354.870000</v>
+        <v>1354.87</v>
       </c>
       <c r="BL8" s="1">
-        <v>-346.858000</v>
+        <v>-346.858</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>3393.929283</v>
+        <v>3393.9292829999999</v>
       </c>
       <c r="BO8" s="1">
-        <v>0.942758</v>
+        <v>0.94275799999999998</v>
       </c>
       <c r="BP8" s="1">
-        <v>1463.200000</v>
+        <v>1463.2</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-566.619000</v>
+        <v>-566.61900000000003</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
         <v>3404.381476</v>
@@ -2233,542 +2649,542 @@
         <v>0.945662</v>
       </c>
       <c r="BU8" s="1">
-        <v>1588.970000</v>
+        <v>1588.97</v>
       </c>
       <c r="BV8" s="1">
-        <v>-816.422000</v>
+        <v>-816.42200000000003</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>3414.865926</v>
+        <v>3414.8659259999999</v>
       </c>
       <c r="BY8" s="1">
-        <v>0.948574</v>
+        <v>0.94857400000000003</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1735.760000</v>
+        <v>1735.76</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1090.230000</v>
+        <v>-1090.23</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>3426.502056</v>
+        <v>3426.5020559999998</v>
       </c>
       <c r="CD8" s="1">
-        <v>0.951806</v>
+        <v>0.95180600000000004</v>
       </c>
       <c r="CE8" s="1">
-        <v>2143.210000</v>
+        <v>2143.21</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1759.480000</v>
+        <v>-1759.48</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>3257.257655</v>
+        <v>3257.2576549999999</v>
       </c>
       <c r="B9" s="1">
-        <v>0.904794</v>
+        <v>0.90479399999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1138.560000</v>
+        <v>1138.56</v>
       </c>
       <c r="D9" s="1">
-        <v>-252.651000</v>
+        <v>-252.65100000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>3267.680090</v>
+        <v>3267.6800899999998</v>
       </c>
       <c r="G9" s="1">
-        <v>0.907689</v>
+        <v>0.90768899999999997</v>
       </c>
       <c r="H9" s="1">
-        <v>1160.590000</v>
+        <v>1160.5899999999999</v>
       </c>
       <c r="I9" s="1">
-        <v>-213.028000</v>
+        <v>-213.02799999999999</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>3277.684428</v>
       </c>
       <c r="L9" s="1">
-        <v>0.910468</v>
+        <v>0.91046800000000006</v>
       </c>
       <c r="M9" s="1">
-        <v>1189.880000</v>
+        <v>1189.8800000000001</v>
       </c>
       <c r="N9" s="1">
-        <v>-149.033000</v>
+        <v>-149.03299999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>3288.189662</v>
+        <v>3288.1896620000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>0.913386</v>
+        <v>0.91338600000000003</v>
       </c>
       <c r="R9" s="1">
-        <v>1198.240000</v>
+        <v>1198.24</v>
       </c>
       <c r="S9" s="1">
-        <v>-127.403000</v>
+        <v>-127.40300000000001</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>3298.731632</v>
       </c>
       <c r="V9" s="1">
-        <v>0.916314</v>
+        <v>0.91631399999999996</v>
       </c>
       <c r="W9" s="1">
-        <v>1205.960000</v>
+        <v>1205.96</v>
       </c>
       <c r="X9" s="1">
-        <v>-106.519000</v>
+        <v>-106.51900000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>3309.241891</v>
+        <v>3309.2418910000001</v>
       </c>
       <c r="AA9" s="1">
         <v>0.919234</v>
       </c>
       <c r="AB9" s="1">
-        <v>1213.740000</v>
+        <v>1213.74</v>
       </c>
       <c r="AC9" s="1">
-        <v>-89.347400</v>
+        <v>-89.347399999999993</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>3319.762004</v>
+        <v>3319.7620040000002</v>
       </c>
       <c r="AF9" s="1">
-        <v>0.922156</v>
+        <v>0.92215599999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-84.672600</v>
+        <v>-84.672600000000003</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>3329.918621</v>
+        <v>3329.9186209999998</v>
       </c>
       <c r="AK9" s="1">
-        <v>0.924977</v>
+        <v>0.92497700000000005</v>
       </c>
       <c r="AL9" s="1">
-        <v>1225.360000</v>
+        <v>1225.3599999999999</v>
       </c>
       <c r="AM9" s="1">
-        <v>-87.452700</v>
+        <v>-87.452699999999993</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
         <v>3340.273561</v>
       </c>
       <c r="AP9" s="1">
-        <v>0.927854</v>
+        <v>0.92785399999999996</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1233.100000</v>
+        <v>1233.0999999999999</v>
       </c>
       <c r="AR9" s="1">
-        <v>-98.804100</v>
+        <v>-98.804100000000005</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>3350.946971</v>
+        <v>3350.9469709999998</v>
       </c>
       <c r="AU9" s="1">
-        <v>0.930819</v>
+        <v>0.93081899999999995</v>
       </c>
       <c r="AV9" s="1">
-        <v>1242.720000</v>
+        <v>1242.72</v>
       </c>
       <c r="AW9" s="1">
-        <v>-117.343000</v>
+        <v>-117.343</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>3361.643198</v>
+        <v>3361.6431980000002</v>
       </c>
       <c r="AZ9" s="1">
-        <v>0.933790</v>
+        <v>0.93379000000000001</v>
       </c>
       <c r="BA9" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="BB9" s="1">
-        <v>-134.153000</v>
+        <v>-134.15299999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>3372.272000</v>
+        <v>3372.2719999999999</v>
       </c>
       <c r="BE9" s="1">
-        <v>0.936742</v>
+        <v>0.93674199999999996</v>
       </c>
       <c r="BF9" s="1">
-        <v>1289.040000</v>
+        <v>1289.04</v>
       </c>
       <c r="BG9" s="1">
-        <v>-213.479000</v>
+        <v>-213.47900000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>3383.416080</v>
+        <v>3383.41608</v>
       </c>
       <c r="BJ9" s="1">
-        <v>0.939838</v>
+        <v>0.93983799999999995</v>
       </c>
       <c r="BK9" s="1">
-        <v>1354.890000</v>
+        <v>1354.89</v>
       </c>
       <c r="BL9" s="1">
-        <v>-346.870000</v>
+        <v>-346.87</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>3394.038899</v>
+        <v>3394.0388990000001</v>
       </c>
       <c r="BO9" s="1">
-        <v>0.942789</v>
+        <v>0.94278899999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1463.170000</v>
+        <v>1463.17</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-566.640000</v>
+        <v>-566.64</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>3404.524820</v>
+        <v>3404.5248200000001</v>
       </c>
       <c r="BT9" s="1">
-        <v>0.945701</v>
+        <v>0.94570100000000001</v>
       </c>
       <c r="BU9" s="1">
-        <v>1588.900000</v>
+        <v>1588.9</v>
       </c>
       <c r="BV9" s="1">
-        <v>-816.379000</v>
+        <v>-816.37900000000002</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
         <v>3415.290524</v>
       </c>
       <c r="BY9" s="1">
-        <v>0.948692</v>
+        <v>0.94869199999999998</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1735.860000</v>
+        <v>1735.86</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1090.440000</v>
+        <v>-1090.44</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>3427.021895</v>
+        <v>3427.0218949999999</v>
       </c>
       <c r="CD9" s="1">
-        <v>0.951951</v>
+        <v>0.95195099999999999</v>
       </c>
       <c r="CE9" s="1">
-        <v>2144.470000</v>
+        <v>2144.4699999999998</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1759.510000</v>
+        <v>-1759.51</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>3257.679287</v>
+        <v>3257.6792869999999</v>
       </c>
       <c r="B10" s="1">
-        <v>0.904911</v>
+        <v>0.90491100000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>1138.540000</v>
+        <v>1138.54</v>
       </c>
       <c r="D10" s="1">
-        <v>-252.650000</v>
+        <v>-252.65</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>3267.970250</v>
+        <v>3267.9702499999999</v>
       </c>
       <c r="G10" s="1">
-        <v>0.907770</v>
+        <v>0.90776999999999997</v>
       </c>
       <c r="H10" s="1">
-        <v>1160.820000</v>
+        <v>1160.82</v>
       </c>
       <c r="I10" s="1">
-        <v>-212.854000</v>
+        <v>-212.85400000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>3278.028156</v>
+        <v>3278.0281559999999</v>
       </c>
       <c r="L10" s="1">
-        <v>0.910563</v>
+        <v>0.91056300000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1190.110000</v>
+        <v>1190.1099999999999</v>
       </c>
       <c r="N10" s="1">
-        <v>-148.868000</v>
+        <v>-148.86799999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
         <v>3288.538877</v>
       </c>
       <c r="Q10" s="1">
-        <v>0.913483</v>
+        <v>0.91348300000000004</v>
       </c>
       <c r="R10" s="1">
-        <v>1198.240000</v>
+        <v>1198.24</v>
       </c>
       <c r="S10" s="1">
-        <v>-127.371000</v>
+        <v>-127.371</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
         <v>3299.074368</v>
       </c>
       <c r="V10" s="1">
-        <v>0.916410</v>
+        <v>0.91640999999999995</v>
       </c>
       <c r="W10" s="1">
-        <v>1205.950000</v>
+        <v>1205.95</v>
       </c>
       <c r="X10" s="1">
-        <v>-106.550000</v>
+        <v>-106.55</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>3309.939267</v>
+        <v>3309.9392670000002</v>
       </c>
       <c r="AA10" s="1">
-        <v>0.919428</v>
+        <v>0.91942800000000002</v>
       </c>
       <c r="AB10" s="1">
-        <v>1213.660000</v>
+        <v>1213.6600000000001</v>
       </c>
       <c r="AC10" s="1">
-        <v>-89.378400</v>
+        <v>-89.378399999999999</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>3320.449956</v>
+        <v>3320.4499559999999</v>
       </c>
       <c r="AF10" s="1">
-        <v>0.922347</v>
+        <v>0.92234700000000003</v>
       </c>
       <c r="AG10" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="AH10" s="1">
-        <v>-84.678200</v>
+        <v>-84.678200000000004</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>3330.267304</v>
       </c>
       <c r="AK10" s="1">
-        <v>0.925074</v>
+        <v>0.92507399999999995</v>
       </c>
       <c r="AL10" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AM10" s="1">
-        <v>-87.458800</v>
+        <v>-87.458799999999997</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>3340.649529</v>
+        <v>3340.6495289999998</v>
       </c>
       <c r="AP10" s="1">
-        <v>0.927958</v>
+        <v>0.92795799999999995</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1233.070000</v>
+        <v>1233.07</v>
       </c>
       <c r="AR10" s="1">
-        <v>-98.820100</v>
+        <v>-98.820099999999996</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>3351.311034</v>
+        <v>3351.3110339999998</v>
       </c>
       <c r="AU10" s="1">
-        <v>0.930920</v>
+        <v>0.93091999999999997</v>
       </c>
       <c r="AV10" s="1">
-        <v>1242.750000</v>
+        <v>1242.75</v>
       </c>
       <c r="AW10" s="1">
-        <v>-117.340000</v>
+        <v>-117.34</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>3362.318801</v>
+        <v>3362.3188009999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>0.933977</v>
+        <v>0.93397699999999995</v>
       </c>
       <c r="BA10" s="1">
-        <v>1250.830000</v>
+        <v>1250.83</v>
       </c>
       <c r="BB10" s="1">
-        <v>-134.134000</v>
+        <v>-134.13399999999999</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>3372.929198</v>
+        <v>3372.9291979999998</v>
       </c>
       <c r="BE10" s="1">
-        <v>0.936925</v>
+        <v>0.93692500000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1289.050000</v>
+        <v>1289.05</v>
       </c>
       <c r="BG10" s="1">
-        <v>-213.464000</v>
+        <v>-213.464</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>3383.862512</v>
+        <v>3383.8625120000002</v>
       </c>
       <c r="BJ10" s="1">
-        <v>0.939962</v>
+        <v>0.93996199999999996</v>
       </c>
       <c r="BK10" s="1">
-        <v>1354.860000</v>
+        <v>1354.86</v>
       </c>
       <c r="BL10" s="1">
-        <v>-346.853000</v>
+        <v>-346.85300000000001</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>3394.454050</v>
+        <v>3394.4540499999998</v>
       </c>
       <c r="BO10" s="1">
-        <v>0.942904</v>
+        <v>0.94290399999999996</v>
       </c>
       <c r="BP10" s="1">
-        <v>1463.210000</v>
+        <v>1463.21</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-566.609000</v>
+        <v>-566.60900000000004</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>3404.939012</v>
+        <v>3404.9390119999998</v>
       </c>
       <c r="BT10" s="1">
-        <v>0.945816</v>
+        <v>0.94581599999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1588.990000</v>
+        <v>1588.99</v>
       </c>
       <c r="BV10" s="1">
-        <v>-816.417000</v>
+        <v>-816.41700000000003</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>3415.737414</v>
+        <v>3415.7374140000002</v>
       </c>
       <c r="BY10" s="1">
-        <v>0.948816</v>
+        <v>0.94881599999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1735.850000</v>
+        <v>1735.85</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1090.390000</v>
+        <v>-1090.3900000000001</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
         <v>3427.539722</v>
@@ -2777,1465 +3193,1465 @@
         <v>0.952094</v>
       </c>
       <c r="CE10" s="1">
-        <v>2144.260000</v>
+        <v>2144.2600000000002</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1759.660000</v>
+        <v>-1759.66</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>3257.953046</v>
+        <v>3257.9530460000001</v>
       </c>
       <c r="B11" s="1">
-        <v>0.904987</v>
+        <v>0.90498699999999999</v>
       </c>
       <c r="C11" s="1">
-        <v>1138.560000</v>
+        <v>1138.56</v>
       </c>
       <c r="D11" s="1">
-        <v>-252.847000</v>
+        <v>-252.84700000000001</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>3268.314504</v>
+        <v>3268.3145039999999</v>
       </c>
       <c r="G11" s="1">
-        <v>0.907865</v>
+        <v>0.90786500000000003</v>
       </c>
       <c r="H11" s="1">
-        <v>1160.660000</v>
+        <v>1160.6600000000001</v>
       </c>
       <c r="I11" s="1">
-        <v>-213.207000</v>
+        <v>-213.20699999999999</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
         <v>3278.376377</v>
       </c>
       <c r="L11" s="1">
-        <v>0.910660</v>
+        <v>0.91066000000000003</v>
       </c>
       <c r="M11" s="1">
-        <v>1189.880000</v>
+        <v>1189.8800000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-148.963000</v>
+        <v>-148.96299999999999</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
         <v>3288.890046</v>
       </c>
       <c r="Q11" s="1">
-        <v>0.913581</v>
+        <v>0.91358099999999998</v>
       </c>
       <c r="R11" s="1">
-        <v>1198.210000</v>
+        <v>1198.21</v>
       </c>
       <c r="S11" s="1">
-        <v>-127.278000</v>
+        <v>-127.27800000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>3299.755904</v>
+        <v>3299.7559040000001</v>
       </c>
       <c r="V11" s="1">
-        <v>0.916599</v>
+        <v>0.91659900000000005</v>
       </c>
       <c r="W11" s="1">
-        <v>1205.930000</v>
+        <v>1205.93</v>
       </c>
       <c r="X11" s="1">
-        <v>-106.516000</v>
+        <v>-106.51600000000001</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>3310.285974</v>
+        <v>3310.2859739999999</v>
       </c>
       <c r="AA11" s="1">
-        <v>0.919524</v>
+        <v>0.91952400000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1213.570000</v>
+        <v>1213.57</v>
       </c>
       <c r="AC11" s="1">
-        <v>-89.408500</v>
+        <v>-89.408500000000004</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
         <v>3320.790211</v>
       </c>
       <c r="AF11" s="1">
-        <v>0.922442</v>
+        <v>0.92244199999999998</v>
       </c>
       <c r="AG11" s="1">
-        <v>1218.350000</v>
+        <v>1218.3499999999999</v>
       </c>
       <c r="AH11" s="1">
-        <v>-84.677000</v>
+        <v>-84.677000000000007</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
         <v>3330.613515</v>
       </c>
       <c r="AK11" s="1">
-        <v>0.925170</v>
+        <v>0.92517000000000005</v>
       </c>
       <c r="AL11" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM11" s="1">
-        <v>-87.481700</v>
+        <v>-87.481700000000004</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>3341.012105</v>
+        <v>3341.0121049999998</v>
       </c>
       <c r="AP11" s="1">
-        <v>0.928059</v>
+        <v>0.92805899999999997</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1233.080000</v>
+        <v>1233.08</v>
       </c>
       <c r="AR11" s="1">
-        <v>-98.804700</v>
+        <v>-98.804699999999997</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
         <v>3351.980638</v>
       </c>
       <c r="AU11" s="1">
-        <v>0.931106</v>
+        <v>0.93110599999999999</v>
       </c>
       <c r="AV11" s="1">
-        <v>1242.750000</v>
+        <v>1242.75</v>
       </c>
       <c r="AW11" s="1">
-        <v>-117.319000</v>
+        <v>-117.319</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>3362.717570</v>
+        <v>3362.7175699999998</v>
       </c>
       <c r="AZ11" s="1">
-        <v>0.934088</v>
+        <v>0.93408800000000003</v>
       </c>
       <c r="BA11" s="1">
-        <v>1250.830000</v>
+        <v>1250.83</v>
       </c>
       <c r="BB11" s="1">
-        <v>-134.168000</v>
+        <v>-134.16800000000001</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>3373.388499</v>
+        <v>3373.3884990000001</v>
       </c>
       <c r="BE11" s="1">
         <v>0.937052</v>
       </c>
       <c r="BF11" s="1">
-        <v>1289.040000</v>
+        <v>1289.04</v>
       </c>
       <c r="BG11" s="1">
-        <v>-213.457000</v>
+        <v>-213.45699999999999</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>3384.266986</v>
+        <v>3384.2669860000001</v>
       </c>
       <c r="BJ11" s="1">
-        <v>0.940074</v>
+        <v>0.94007399999999997</v>
       </c>
       <c r="BK11" s="1">
-        <v>1354.850000</v>
+        <v>1354.85</v>
       </c>
       <c r="BL11" s="1">
-        <v>-346.897000</v>
+        <v>-346.89699999999999</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>3394.862289</v>
+        <v>3394.8622890000001</v>
       </c>
       <c r="BO11" s="1">
-        <v>0.943017</v>
+        <v>0.94301699999999999</v>
       </c>
       <c r="BP11" s="1">
-        <v>1463.190000</v>
+        <v>1463.19</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-566.605000</v>
+        <v>-566.60500000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>3405.367027</v>
+        <v>3405.3670269999998</v>
       </c>
       <c r="BT11" s="1">
-        <v>0.945935</v>
+        <v>0.94593499999999997</v>
       </c>
       <c r="BU11" s="1">
-        <v>1589.050000</v>
+        <v>1589.05</v>
       </c>
       <c r="BV11" s="1">
-        <v>-816.390000</v>
+        <v>-816.39</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>3416.168437</v>
+        <v>3416.1684369999998</v>
       </c>
       <c r="BY11" s="1">
         <v>0.948936</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1735.790000</v>
+        <v>1735.79</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1090.490000</v>
+        <v>-1090.49</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>3428.090742</v>
+        <v>3428.0907419999999</v>
       </c>
       <c r="CD11" s="1">
-        <v>0.952247</v>
+        <v>0.95224699999999995</v>
       </c>
       <c r="CE11" s="1">
-        <v>2143.040000</v>
+        <v>2143.04</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1759.510000</v>
+        <v>-1759.51</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>3258.293303</v>
+        <v>3258.2933029999999</v>
       </c>
       <c r="B12" s="1">
-        <v>0.905081</v>
+        <v>0.90508100000000002</v>
       </c>
       <c r="C12" s="1">
-        <v>1138.640000</v>
+        <v>1138.6400000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-252.709000</v>
+        <v>-252.709</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>3268.661176</v>
+        <v>3268.6611760000001</v>
       </c>
       <c r="G12" s="1">
-        <v>0.907961</v>
+        <v>0.90796100000000002</v>
       </c>
       <c r="H12" s="1">
-        <v>1160.930000</v>
+        <v>1160.93</v>
       </c>
       <c r="I12" s="1">
-        <v>-213.438000</v>
+        <v>-213.43799999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>3279.070714</v>
       </c>
       <c r="L12" s="1">
-        <v>0.910853</v>
+        <v>0.91085300000000002</v>
       </c>
       <c r="M12" s="1">
-        <v>1190.120000</v>
+        <v>1190.1199999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-148.972000</v>
+        <v>-148.97200000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>3289.583432</v>
+        <v>3289.5834319999999</v>
       </c>
       <c r="Q12" s="1">
-        <v>0.913773</v>
+        <v>0.91377299999999995</v>
       </c>
       <c r="R12" s="1">
-        <v>1198.260000</v>
+        <v>1198.26</v>
       </c>
       <c r="S12" s="1">
-        <v>-127.259000</v>
+        <v>-127.259</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>3300.102080</v>
+        <v>3300.1020800000001</v>
       </c>
       <c r="V12" s="1">
-        <v>0.916695</v>
+        <v>0.91669500000000004</v>
       </c>
       <c r="W12" s="1">
-        <v>1205.990000</v>
+        <v>1205.99</v>
       </c>
       <c r="X12" s="1">
-        <v>-106.542000</v>
+        <v>-106.542</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>3310.636114</v>
+        <v>3310.6361139999999</v>
       </c>
       <c r="AA12" s="1">
-        <v>0.919621</v>
+        <v>0.91962100000000002</v>
       </c>
       <c r="AB12" s="1">
-        <v>1213.610000</v>
+        <v>1213.6099999999999</v>
       </c>
       <c r="AC12" s="1">
-        <v>-89.433500</v>
+        <v>-89.433499999999995</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>3321.136419</v>
+        <v>3321.1364189999999</v>
       </c>
       <c r="AF12" s="1">
-        <v>0.922538</v>
+        <v>0.92253799999999997</v>
       </c>
       <c r="AG12" s="1">
-        <v>1218.360000</v>
+        <v>1218.3599999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-84.648700</v>
+        <v>-84.648700000000005</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>3331.280597</v>
+        <v>3331.2805969999999</v>
       </c>
       <c r="AK12" s="1">
-        <v>0.925356</v>
+        <v>0.92535599999999996</v>
       </c>
       <c r="AL12" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM12" s="1">
-        <v>-87.470200</v>
+        <v>-87.470200000000006</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
         <v>3341.693111</v>
       </c>
       <c r="AP12" s="1">
-        <v>0.928248</v>
+        <v>0.92824799999999996</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1233.080000</v>
+        <v>1233.08</v>
       </c>
       <c r="AR12" s="1">
-        <v>-98.796700</v>
+        <v>-98.796700000000001</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>3352.440458</v>
       </c>
       <c r="AU12" s="1">
-        <v>0.931233</v>
+        <v>0.93123299999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>1242.720000</v>
+        <v>1242.72</v>
       </c>
       <c r="AW12" s="1">
-        <v>-117.356000</v>
+        <v>-117.35599999999999</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>3363.106891</v>
+        <v>3363.1068909999999</v>
       </c>
       <c r="AZ12" s="1">
-        <v>0.934196</v>
+        <v>0.93419600000000003</v>
       </c>
       <c r="BA12" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="BB12" s="1">
-        <v>-134.137000</v>
+        <v>-134.137</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>3373.751226</v>
+        <v>3373.7512259999999</v>
       </c>
       <c r="BE12" s="1">
-        <v>0.937153</v>
+        <v>0.93715300000000001</v>
       </c>
       <c r="BF12" s="1">
-        <v>1289.020000</v>
+        <v>1289.02</v>
       </c>
       <c r="BG12" s="1">
-        <v>-213.450000</v>
+        <v>-213.45</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>3384.641695</v>
+        <v>3384.6416949999998</v>
       </c>
       <c r="BJ12" s="1">
-        <v>0.940178</v>
+        <v>0.94017799999999996</v>
       </c>
       <c r="BK12" s="1">
-        <v>1354.860000</v>
+        <v>1354.86</v>
       </c>
       <c r="BL12" s="1">
-        <v>-346.860000</v>
+        <v>-346.86</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
         <v>3395.284353</v>
       </c>
       <c r="BO12" s="1">
-        <v>0.943135</v>
+        <v>0.94313499999999995</v>
       </c>
       <c r="BP12" s="1">
-        <v>1463.180000</v>
+        <v>1463.18</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-566.565000</v>
+        <v>-566.56500000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>3405.780691</v>
+        <v>3405.7806909999999</v>
       </c>
       <c r="BT12" s="1">
-        <v>0.946050</v>
+        <v>0.94604999999999995</v>
       </c>
       <c r="BU12" s="1">
-        <v>1589.050000</v>
+        <v>1589.05</v>
       </c>
       <c r="BV12" s="1">
-        <v>-816.342000</v>
+        <v>-816.34199999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>3416.591493</v>
+        <v>3416.5914929999999</v>
       </c>
       <c r="BY12" s="1">
-        <v>0.949053</v>
+        <v>0.94905300000000004</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1735.880000</v>
+        <v>1735.88</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1090.340000</v>
+        <v>-1090.3399999999999</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>3428.618516</v>
       </c>
       <c r="CD12" s="1">
-        <v>0.952394</v>
+        <v>0.95239399999999996</v>
       </c>
       <c r="CE12" s="1">
-        <v>2144.690000</v>
+        <v>2144.69</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1759.440000</v>
+        <v>-1759.44</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>3258.638519</v>
+        <v>3258.6385190000001</v>
       </c>
       <c r="B13" s="1">
-        <v>0.905177</v>
+        <v>0.90517700000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>1138.420000</v>
+        <v>1138.42</v>
       </c>
       <c r="D13" s="1">
-        <v>-252.704000</v>
+        <v>-252.70400000000001</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>3269.348631</v>
+        <v>3269.3486309999998</v>
       </c>
       <c r="G13" s="1">
-        <v>0.908152</v>
+        <v>0.90815199999999996</v>
       </c>
       <c r="H13" s="1">
-        <v>1160.860000</v>
+        <v>1160.8599999999999</v>
       </c>
       <c r="I13" s="1">
-        <v>-213.160000</v>
+        <v>-213.16</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>3279.422378</v>
+        <v>3279.4223780000002</v>
       </c>
       <c r="L13" s="1">
-        <v>0.910951</v>
+        <v>0.91095099999999996</v>
       </c>
       <c r="M13" s="1">
-        <v>1189.890000</v>
+        <v>1189.8900000000001</v>
       </c>
       <c r="N13" s="1">
-        <v>-149.075000</v>
+        <v>-149.07499999999999</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>3289.933138</v>
+        <v>3289.9331379999999</v>
       </c>
       <c r="Q13" s="1">
-        <v>0.913870</v>
+        <v>0.91386999999999996</v>
       </c>
       <c r="R13" s="1">
-        <v>1198.330000</v>
+        <v>1198.33</v>
       </c>
       <c r="S13" s="1">
-        <v>-127.268000</v>
+        <v>-127.268</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>3300.444345</v>
+        <v>3300.4443449999999</v>
       </c>
       <c r="V13" s="1">
-        <v>0.916790</v>
+        <v>0.91678999999999999</v>
       </c>
       <c r="W13" s="1">
-        <v>1206.000000</v>
+        <v>1206</v>
       </c>
       <c r="X13" s="1">
-        <v>-106.636000</v>
+        <v>-106.636</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>3311.288847</v>
+        <v>3311.2888469999998</v>
       </c>
       <c r="AA13" s="1">
-        <v>0.919802</v>
+        <v>0.91980200000000001</v>
       </c>
       <c r="AB13" s="1">
-        <v>1213.710000</v>
+        <v>1213.71</v>
       </c>
       <c r="AC13" s="1">
-        <v>-89.394200</v>
+        <v>-89.394199999999998</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>3321.785682</v>
+        <v>3321.7856820000002</v>
       </c>
       <c r="AF13" s="1">
-        <v>0.922718</v>
+        <v>0.92271800000000004</v>
       </c>
       <c r="AG13" s="1">
-        <v>1218.390000</v>
+        <v>1218.3900000000001</v>
       </c>
       <c r="AH13" s="1">
-        <v>-84.659900</v>
+        <v>-84.659899999999993</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>3331.661564</v>
       </c>
       <c r="AK13" s="1">
-        <v>0.925462</v>
+        <v>0.92546200000000001</v>
       </c>
       <c r="AL13" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AM13" s="1">
-        <v>-87.461400</v>
+        <v>-87.461399999999998</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>3342.132071</v>
       </c>
       <c r="AP13" s="1">
-        <v>0.928370</v>
+        <v>0.92837000000000003</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1233.050000</v>
+        <v>1233.05</v>
       </c>
       <c r="AR13" s="1">
-        <v>-98.782200</v>
+        <v>-98.782200000000003</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>3352.804986</v>
+        <v>3352.8049860000001</v>
       </c>
       <c r="AU13" s="1">
-        <v>0.931335</v>
+        <v>0.93133500000000002</v>
       </c>
       <c r="AV13" s="1">
-        <v>1242.760000</v>
+        <v>1242.76</v>
       </c>
       <c r="AW13" s="1">
-        <v>-117.353000</v>
+        <v>-117.35299999999999</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>3363.466027</v>
+        <v>3363.4660269999999</v>
       </c>
       <c r="AZ13" s="1">
-        <v>0.934296</v>
+        <v>0.93429600000000002</v>
       </c>
       <c r="BA13" s="1">
-        <v>1250.860000</v>
+        <v>1250.8599999999999</v>
       </c>
       <c r="BB13" s="1">
-        <v>-134.177000</v>
+        <v>-134.17699999999999</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>3374.111133</v>
+        <v>3374.1111329999999</v>
       </c>
       <c r="BE13" s="1">
         <v>0.937253</v>
       </c>
       <c r="BF13" s="1">
-        <v>1289.000000</v>
+        <v>1289</v>
       </c>
       <c r="BG13" s="1">
-        <v>-213.460000</v>
+        <v>-213.46</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>3385.052911</v>
+        <v>3385.0529110000002</v>
       </c>
       <c r="BJ13" s="1">
-        <v>0.940292</v>
+        <v>0.94029200000000002</v>
       </c>
       <c r="BK13" s="1">
-        <v>1354.890000</v>
+        <v>1354.89</v>
       </c>
       <c r="BL13" s="1">
-        <v>-346.858000</v>
+        <v>-346.858</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>3395.680160</v>
+        <v>3395.6801599999999</v>
       </c>
       <c r="BO13" s="1">
-        <v>0.943244</v>
+        <v>0.94324399999999997</v>
       </c>
       <c r="BP13" s="1">
-        <v>1463.230000</v>
+        <v>1463.23</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-566.578000</v>
+        <v>-566.57799999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>3406.194354</v>
+        <v>3406.1943540000002</v>
       </c>
       <c r="BT13" s="1">
-        <v>0.946165</v>
+        <v>0.94616500000000003</v>
       </c>
       <c r="BU13" s="1">
-        <v>1589.080000</v>
+        <v>1589.08</v>
       </c>
       <c r="BV13" s="1">
-        <v>-816.287000</v>
+        <v>-816.28700000000003</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>3417.013104</v>
+        <v>3417.0131040000001</v>
       </c>
       <c r="BY13" s="1">
-        <v>0.949170</v>
+        <v>0.94916999999999996</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1735.990000</v>
+        <v>1735.99</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1090.420000</v>
+        <v>-1090.42</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>3429.138292</v>
+        <v>3429.1382920000001</v>
       </c>
       <c r="CD13" s="1">
         <v>0.952538</v>
       </c>
       <c r="CE13" s="1">
-        <v>2143.410000</v>
+        <v>2143.41</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1757.320000</v>
+        <v>-1757.32</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>3259.319526</v>
+        <v>3259.3195260000002</v>
       </c>
       <c r="B14" s="1">
-        <v>0.905367</v>
+        <v>0.90536700000000003</v>
       </c>
       <c r="C14" s="1">
-        <v>1138.750000</v>
+        <v>1138.75</v>
       </c>
       <c r="D14" s="1">
-        <v>-252.534000</v>
+        <v>-252.53399999999999</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
         <v>3269.691863</v>
       </c>
       <c r="G14" s="1">
-        <v>0.908248</v>
+        <v>0.90824800000000006</v>
       </c>
       <c r="H14" s="1">
-        <v>1160.980000</v>
+        <v>1160.98</v>
       </c>
       <c r="I14" s="1">
-        <v>-213.094000</v>
+        <v>-213.09399999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
         <v>3279.766106</v>
       </c>
       <c r="L14" s="1">
-        <v>0.911046</v>
+        <v>0.91104600000000002</v>
       </c>
       <c r="M14" s="1">
-        <v>1189.910000</v>
+        <v>1189.9100000000001</v>
       </c>
       <c r="N14" s="1">
-        <v>-149.169000</v>
+        <v>-149.16900000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>3290.282301</v>
+        <v>3290.2823010000002</v>
       </c>
       <c r="Q14" s="1">
-        <v>0.913967</v>
+        <v>0.91396699999999997</v>
       </c>
       <c r="R14" s="1">
-        <v>1198.310000</v>
+        <v>1198.31</v>
       </c>
       <c r="S14" s="1">
-        <v>-127.361000</v>
+        <v>-127.361</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
         <v>3301.095069</v>
       </c>
       <c r="V14" s="1">
-        <v>0.916971</v>
+        <v>0.91697099999999998</v>
       </c>
       <c r="W14" s="1">
-        <v>1205.910000</v>
+        <v>1205.9100000000001</v>
       </c>
       <c r="X14" s="1">
-        <v>-106.519000</v>
+        <v>-106.51900000000001</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>3311.680191</v>
+        <v>3311.6801909999999</v>
       </c>
       <c r="AA14" s="1">
-        <v>0.919911</v>
+        <v>0.91991100000000003</v>
       </c>
       <c r="AB14" s="1">
-        <v>1213.740000</v>
+        <v>1213.74</v>
       </c>
       <c r="AC14" s="1">
-        <v>-89.466000</v>
+        <v>-89.465999999999994</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>3322.163170</v>
+        <v>3322.1631699999998</v>
       </c>
       <c r="AF14" s="1">
-        <v>0.922823</v>
+        <v>0.92282299999999995</v>
       </c>
       <c r="AG14" s="1">
-        <v>1218.410000</v>
+        <v>1218.4100000000001</v>
       </c>
       <c r="AH14" s="1">
-        <v>-84.652500</v>
+        <v>-84.652500000000003</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>3332.012693</v>
+        <v>3332.0126930000001</v>
       </c>
       <c r="AK14" s="1">
-        <v>0.925559</v>
+        <v>0.92555900000000002</v>
       </c>
       <c r="AL14" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM14" s="1">
-        <v>-87.469600</v>
+        <v>-87.4696</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>3342.473851</v>
+        <v>3342.4738510000002</v>
       </c>
       <c r="AP14" s="1">
-        <v>0.928465</v>
+        <v>0.92846499999999998</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1233.070000</v>
+        <v>1233.07</v>
       </c>
       <c r="AR14" s="1">
-        <v>-98.810500</v>
+        <v>-98.810500000000005</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>3353.169545</v>
+        <v>3353.1695450000002</v>
       </c>
       <c r="AU14" s="1">
-        <v>0.931436</v>
+        <v>0.93143600000000004</v>
       </c>
       <c r="AV14" s="1">
-        <v>1242.750000</v>
+        <v>1242.75</v>
       </c>
       <c r="AW14" s="1">
-        <v>-117.328000</v>
+        <v>-117.328</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>3363.882172</v>
+        <v>3363.8821720000001</v>
       </c>
       <c r="AZ14" s="1">
-        <v>0.934412</v>
+        <v>0.93441200000000002</v>
       </c>
       <c r="BA14" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="BB14" s="1">
-        <v>-134.147000</v>
+        <v>-134.14699999999999</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>3374.536204</v>
       </c>
       <c r="BE14" s="1">
-        <v>0.937371</v>
+        <v>0.93737099999999995</v>
       </c>
       <c r="BF14" s="1">
-        <v>1289.010000</v>
+        <v>1289.01</v>
       </c>
       <c r="BG14" s="1">
-        <v>-213.473000</v>
+        <v>-213.47300000000001</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>3385.418926</v>
+        <v>3385.4189259999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>0.940394</v>
+        <v>0.94039399999999995</v>
       </c>
       <c r="BK14" s="1">
-        <v>1354.870000</v>
+        <v>1354.87</v>
       </c>
       <c r="BL14" s="1">
-        <v>-346.877000</v>
+        <v>-346.87700000000001</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>3396.101265</v>
+        <v>3396.1012649999998</v>
       </c>
       <c r="BO14" s="1">
-        <v>0.943361</v>
+        <v>0.94336100000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1463.160000</v>
+        <v>1463.16</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-566.579000</v>
+        <v>-566.57899999999995</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
         <v>3406.612482</v>
       </c>
       <c r="BT14" s="1">
-        <v>0.946281</v>
+        <v>0.94628100000000004</v>
       </c>
       <c r="BU14" s="1">
-        <v>1589.180000</v>
+        <v>1589.18</v>
       </c>
       <c r="BV14" s="1">
-        <v>-816.290000</v>
+        <v>-816.29</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>3417.467957</v>
+        <v>3417.4679569999998</v>
       </c>
       <c r="BY14" s="1">
-        <v>0.949297</v>
+        <v>0.94929699999999995</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1736.120000</v>
+        <v>1736.12</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1090.500000</v>
+        <v>-1090.5</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>3429.680436</v>
+        <v>3429.6804360000001</v>
       </c>
       <c r="CD14" s="1">
-        <v>0.952689</v>
+        <v>0.95268900000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>2143.390000</v>
+        <v>2143.39</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1760.250000</v>
+        <v>-1760.25</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>3259.663285</v>
+        <v>3259.6632850000001</v>
       </c>
       <c r="B15" s="1">
-        <v>0.905462</v>
+        <v>0.90546199999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>1138.450000</v>
+        <v>1138.45</v>
       </c>
       <c r="D15" s="1">
-        <v>-252.638000</v>
+        <v>-252.63800000000001</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>3270.039560</v>
+        <v>3270.0395600000002</v>
       </c>
       <c r="G15" s="1">
-        <v>0.908344</v>
+        <v>0.90834400000000004</v>
       </c>
       <c r="H15" s="1">
-        <v>1161.050000</v>
+        <v>1161.05</v>
       </c>
       <c r="I15" s="1">
-        <v>-213.332000</v>
+        <v>-213.33199999999999</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>3280.422843</v>
+        <v>3280.4228429999998</v>
       </c>
       <c r="L15" s="1">
-        <v>0.911229</v>
+        <v>0.91122899999999996</v>
       </c>
       <c r="M15" s="1">
-        <v>1190.100000</v>
+        <v>1190.0999999999999</v>
       </c>
       <c r="N15" s="1">
-        <v>-149.317000</v>
+        <v>-149.31700000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
         <v>3290.935019</v>
       </c>
       <c r="Q15" s="1">
-        <v>0.914149</v>
+        <v>0.91414899999999999</v>
       </c>
       <c r="R15" s="1">
-        <v>1198.230000</v>
+        <v>1198.23</v>
       </c>
       <c r="S15" s="1">
-        <v>-127.349000</v>
+        <v>-127.349</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>3301.476989</v>
+        <v>3301.4769889999998</v>
       </c>
       <c r="V15" s="1">
-        <v>0.917077</v>
+        <v>0.91707700000000003</v>
       </c>
       <c r="W15" s="1">
-        <v>1205.960000</v>
+        <v>1205.96</v>
       </c>
       <c r="X15" s="1">
-        <v>-106.605000</v>
+        <v>-106.605</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>3312.029871</v>
+        <v>3312.0298710000002</v>
       </c>
       <c r="AA15" s="1">
-        <v>0.920008</v>
+        <v>0.92000800000000005</v>
       </c>
       <c r="AB15" s="1">
-        <v>1213.710000</v>
+        <v>1213.71</v>
       </c>
       <c r="AC15" s="1">
-        <v>-89.398500</v>
+        <v>-89.398499999999999</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>3322.506897</v>
+        <v>3322.5068970000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>0.922919</v>
+        <v>0.92291900000000004</v>
       </c>
       <c r="AG15" s="1">
-        <v>1218.330000</v>
+        <v>1218.33</v>
       </c>
       <c r="AH15" s="1">
-        <v>-84.619400</v>
+        <v>-84.619399999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>3332.357910</v>
+        <v>3332.3579100000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>0.925655</v>
+        <v>0.92565500000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1225.330000</v>
+        <v>1225.33</v>
       </c>
       <c r="AM15" s="1">
-        <v>-87.479500</v>
+        <v>-87.479500000000002</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
         <v>3342.892934</v>
       </c>
       <c r="AP15" s="1">
-        <v>0.928581</v>
+        <v>0.92858099999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1233.090000</v>
+        <v>1233.0899999999999</v>
       </c>
       <c r="AR15" s="1">
-        <v>-98.799200</v>
+        <v>-98.799199999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>3353.590152</v>
+        <v>3353.5901520000002</v>
       </c>
       <c r="AU15" s="1">
-        <v>0.931553</v>
+        <v>0.93155299999999996</v>
       </c>
       <c r="AV15" s="1">
-        <v>1242.730000</v>
+        <v>1242.73</v>
       </c>
       <c r="AW15" s="1">
-        <v>-117.337000</v>
+        <v>-117.337</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>3364.177258</v>
+        <v>3364.1772580000002</v>
       </c>
       <c r="AZ15" s="1">
-        <v>0.934494</v>
+        <v>0.93449400000000005</v>
       </c>
       <c r="BA15" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="BB15" s="1">
-        <v>-134.176000</v>
+        <v>-134.17599999999999</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>3374.831324</v>
+        <v>3374.8313240000002</v>
       </c>
       <c r="BE15" s="1">
-        <v>0.937453</v>
+        <v>0.93745299999999998</v>
       </c>
       <c r="BF15" s="1">
-        <v>1289.030000</v>
+        <v>1289.03</v>
       </c>
       <c r="BG15" s="1">
-        <v>-213.462000</v>
+        <v>-213.46199999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>3385.789438</v>
+        <v>3385.7894379999998</v>
       </c>
       <c r="BJ15" s="1">
-        <v>0.940497</v>
+        <v>0.94049700000000003</v>
       </c>
       <c r="BK15" s="1">
-        <v>1354.840000</v>
+        <v>1354.84</v>
       </c>
       <c r="BL15" s="1">
-        <v>-346.876000</v>
+        <v>-346.87599999999998</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
         <v>3396.496607</v>
       </c>
       <c r="BO15" s="1">
-        <v>0.943471</v>
+        <v>0.94347099999999995</v>
       </c>
       <c r="BP15" s="1">
-        <v>1463.180000</v>
+        <v>1463.18</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-566.578000</v>
+        <v>-566.57799999999997</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>3407.022674</v>
+        <v>3407.0226739999998</v>
       </c>
       <c r="BT15" s="1">
-        <v>0.946395</v>
+        <v>0.94639499999999999</v>
       </c>
       <c r="BU15" s="1">
-        <v>1589.250000</v>
+        <v>1589.25</v>
       </c>
       <c r="BV15" s="1">
-        <v>-816.380000</v>
+        <v>-816.38</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>3417.882579</v>
+        <v>3417.8825790000001</v>
       </c>
       <c r="BY15" s="1">
-        <v>0.949412</v>
+        <v>0.94941200000000003</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1735.910000</v>
+        <v>1735.91</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1090.410000</v>
+        <v>-1090.4100000000001</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>3430.220594</v>
+        <v>3430.2205939999999</v>
       </c>
       <c r="CD15" s="1">
-        <v>0.952839</v>
+        <v>0.95283899999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>2144.570000</v>
+        <v>2144.5700000000002</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1758.190000</v>
+        <v>-1758.19</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>3260.305607</v>
+        <v>3260.3056069999998</v>
       </c>
       <c r="B16" s="1">
-        <v>0.905640</v>
+        <v>0.90564</v>
       </c>
       <c r="C16" s="1">
-        <v>1138.230000</v>
+        <v>1138.23</v>
       </c>
       <c r="D16" s="1">
-        <v>-252.637000</v>
+        <v>-252.637</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>3270.690347</v>
+        <v>3270.6903470000002</v>
       </c>
       <c r="G16" s="1">
-        <v>0.908525</v>
+        <v>0.90852500000000003</v>
       </c>
       <c r="H16" s="1">
-        <v>1160.600000</v>
+        <v>1160.5999999999999</v>
       </c>
       <c r="I16" s="1">
-        <v>-213.423000</v>
+        <v>-213.423</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>3280.801256</v>
+        <v>3280.8012560000002</v>
       </c>
       <c r="L16" s="1">
-        <v>0.911334</v>
+        <v>0.91133399999999998</v>
       </c>
       <c r="M16" s="1">
-        <v>1189.890000</v>
+        <v>1189.8900000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-149.118000</v>
+        <v>-149.11799999999999</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>3291.327850</v>
+        <v>3291.3278500000001</v>
       </c>
       <c r="Q16" s="1">
-        <v>0.914258</v>
+        <v>0.91425800000000002</v>
       </c>
       <c r="R16" s="1">
-        <v>1198.200000</v>
+        <v>1198.2</v>
       </c>
       <c r="S16" s="1">
-        <v>-127.348000</v>
+        <v>-127.348</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
         <v>3301.818268</v>
       </c>
       <c r="V16" s="1">
-        <v>0.917172</v>
+        <v>0.91717199999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>1205.890000</v>
+        <v>1205.8900000000001</v>
       </c>
       <c r="X16" s="1">
-        <v>-106.665000</v>
+        <v>-106.66500000000001</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>3312.379584</v>
+        <v>3312.3795839999998</v>
       </c>
       <c r="AA16" s="1">
-        <v>0.920105</v>
+        <v>0.92010499999999995</v>
       </c>
       <c r="AB16" s="1">
-        <v>1213.560000</v>
+        <v>1213.56</v>
       </c>
       <c r="AC16" s="1">
-        <v>-89.353300</v>
+        <v>-89.353300000000004</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>3322.852577</v>
+        <v>3322.8525770000001</v>
       </c>
       <c r="AF16" s="1">
-        <v>0.923015</v>
+        <v>0.92301500000000003</v>
       </c>
       <c r="AG16" s="1">
-        <v>1218.390000</v>
+        <v>1218.3900000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-84.671900</v>
+        <v>-84.671899999999994</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>3332.770580</v>
+        <v>3332.7705799999999</v>
       </c>
       <c r="AK16" s="1">
-        <v>0.925770</v>
+        <v>0.92576999999999998</v>
       </c>
       <c r="AL16" s="1">
-        <v>1225.330000</v>
+        <v>1225.33</v>
       </c>
       <c r="AM16" s="1">
-        <v>-87.465500</v>
+        <v>-87.465500000000006</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>3343.194501</v>
+        <v>3343.1945009999999</v>
       </c>
       <c r="AP16" s="1">
-        <v>0.928665</v>
+        <v>0.92866499999999996</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1233.120000</v>
+        <v>1233.1199999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-98.812800</v>
+        <v>-98.812799999999996</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>3353.898167</v>
+        <v>3353.8981669999998</v>
       </c>
       <c r="AU16" s="1">
-        <v>0.931638</v>
+        <v>0.93163799999999997</v>
       </c>
       <c r="AV16" s="1">
-        <v>1242.700000</v>
+        <v>1242.7</v>
       </c>
       <c r="AW16" s="1">
-        <v>-117.308000</v>
+        <v>-117.30800000000001</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>3364.538841</v>
       </c>
       <c r="AZ16" s="1">
-        <v>0.934594</v>
+        <v>0.93459400000000004</v>
       </c>
       <c r="BA16" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="BB16" s="1">
-        <v>-134.196000</v>
+        <v>-134.196</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
         <v>3375.194923</v>
@@ -4244,1178 +4660,1178 @@
         <v>0.937554</v>
       </c>
       <c r="BF16" s="1">
-        <v>1289.030000</v>
+        <v>1289.03</v>
       </c>
       <c r="BG16" s="1">
-        <v>-213.483000</v>
+        <v>-213.483</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>3386.169373</v>
+        <v>3386.1693730000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>0.940603</v>
+        <v>0.94060299999999997</v>
       </c>
       <c r="BK16" s="1">
-        <v>1354.870000</v>
+        <v>1354.87</v>
       </c>
       <c r="BL16" s="1">
-        <v>-346.873000</v>
+        <v>-346.87299999999999</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
         <v>3396.919664</v>
       </c>
       <c r="BO16" s="1">
-        <v>0.943589</v>
+        <v>0.94358900000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1463.200000</v>
+        <v>1463.2</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-566.613000</v>
+        <v>-566.61300000000006</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>3407.439313</v>
+        <v>3407.4393129999999</v>
       </c>
       <c r="BT16" s="1">
-        <v>0.946511</v>
+        <v>0.94651099999999999</v>
       </c>
       <c r="BU16" s="1">
-        <v>1589.310000</v>
+        <v>1589.31</v>
       </c>
       <c r="BV16" s="1">
-        <v>-816.292000</v>
+        <v>-816.29200000000003</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>3418.336418</v>
+        <v>3418.3364179999999</v>
       </c>
       <c r="BY16" s="1">
-        <v>0.949538</v>
+        <v>0.94953799999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1735.810000</v>
+        <v>1735.81</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1090.550000</v>
+        <v>-1090.55</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>3430.745826</v>
+        <v>3430.7458259999999</v>
       </c>
       <c r="CD16" s="1">
-        <v>0.952985</v>
+        <v>0.95298499999999997</v>
       </c>
       <c r="CE16" s="1">
-        <v>2142.840000</v>
+        <v>2142.84</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1758.920000</v>
+        <v>-1758.92</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>3260.687490</v>
+        <v>3260.6874899999998</v>
       </c>
       <c r="B17" s="1">
-        <v>0.905747</v>
+        <v>0.90574699999999997</v>
       </c>
       <c r="C17" s="1">
-        <v>1138.400000</v>
+        <v>1138.4000000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-252.668000</v>
+        <v>-252.66800000000001</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>3271.070742</v>
+        <v>3271.0707419999999</v>
       </c>
       <c r="G17" s="1">
-        <v>0.908631</v>
+        <v>0.90863099999999997</v>
       </c>
       <c r="H17" s="1">
-        <v>1160.750000</v>
+        <v>1160.75</v>
       </c>
       <c r="I17" s="1">
-        <v>-213.068000</v>
+        <v>-213.06800000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>3281.148990</v>
+        <v>3281.1489900000001</v>
       </c>
       <c r="L17" s="1">
-        <v>0.911430</v>
+        <v>0.91142999999999996</v>
       </c>
       <c r="M17" s="1">
-        <v>1190.290000</v>
+        <v>1190.29</v>
       </c>
       <c r="N17" s="1">
-        <v>-149.076000</v>
+        <v>-149.07599999999999</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>3291.666122</v>
+        <v>3291.6661220000001</v>
       </c>
       <c r="Q17" s="1">
-        <v>0.914352</v>
+        <v>0.91435200000000005</v>
       </c>
       <c r="R17" s="1">
-        <v>1198.210000</v>
+        <v>1198.21</v>
       </c>
       <c r="S17" s="1">
-        <v>-127.246000</v>
+        <v>-127.246</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>3302.164444</v>
       </c>
       <c r="V17" s="1">
-        <v>0.917268</v>
+        <v>0.91726799999999997</v>
       </c>
       <c r="W17" s="1">
-        <v>1205.930000</v>
+        <v>1205.93</v>
       </c>
       <c r="X17" s="1">
-        <v>-106.563000</v>
+        <v>-106.563</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>3312.801680</v>
+        <v>3312.80168</v>
       </c>
       <c r="AA17" s="1">
-        <v>0.920223</v>
+        <v>0.92022300000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>1213.640000</v>
+        <v>1213.6400000000001</v>
       </c>
       <c r="AC17" s="1">
-        <v>-89.452900</v>
+        <v>-89.4529</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>3323.283135</v>
+        <v>3323.2831350000001</v>
       </c>
       <c r="AF17" s="1">
-        <v>0.923134</v>
+        <v>0.92313400000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1218.320000</v>
+        <v>1218.32</v>
       </c>
       <c r="AH17" s="1">
-        <v>-84.662500</v>
+        <v>-84.662499999999994</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>3333.071455</v>
+        <v>3333.0714549999998</v>
       </c>
       <c r="AK17" s="1">
-        <v>0.925853</v>
+        <v>0.92585300000000004</v>
       </c>
       <c r="AL17" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AM17" s="1">
-        <v>-87.499900</v>
+        <v>-87.499899999999997</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>3343.553873</v>
+        <v>3343.5538729999998</v>
       </c>
       <c r="AP17" s="1">
-        <v>0.928765</v>
+        <v>0.92876499999999995</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1233.090000</v>
+        <v>1233.0899999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-98.818500</v>
+        <v>-98.8185</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>3354.262727</v>
+        <v>3354.2627269999998</v>
       </c>
       <c r="AU17" s="1">
-        <v>0.931740</v>
+        <v>0.93174000000000001</v>
       </c>
       <c r="AV17" s="1">
-        <v>1242.760000</v>
+        <v>1242.76</v>
       </c>
       <c r="AW17" s="1">
-        <v>-117.315000</v>
+        <v>-117.315</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>3364.898937</v>
+        <v>3364.8989369999999</v>
       </c>
       <c r="AZ17" s="1">
-        <v>0.934694</v>
+        <v>0.93469400000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1250.860000</v>
+        <v>1250.8599999999999</v>
       </c>
       <c r="BB17" s="1">
-        <v>-134.164000</v>
+        <v>-134.16399999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>3375.806000</v>
+        <v>3375.806</v>
       </c>
       <c r="BE17" s="1">
         <v>0.937724</v>
       </c>
       <c r="BF17" s="1">
-        <v>1289.050000</v>
+        <v>1289.05</v>
       </c>
       <c r="BG17" s="1">
-        <v>-213.451000</v>
+        <v>-213.45099999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>3386.920844</v>
+        <v>3386.9208440000002</v>
       </c>
       <c r="BJ17" s="1">
-        <v>0.940811</v>
+        <v>0.94081099999999995</v>
       </c>
       <c r="BK17" s="1">
-        <v>1354.850000</v>
+        <v>1354.85</v>
       </c>
       <c r="BL17" s="1">
-        <v>-346.861000</v>
+        <v>-346.86099999999999</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>3397.314974</v>
+        <v>3397.3149739999999</v>
       </c>
       <c r="BO17" s="1">
-        <v>0.943699</v>
+        <v>0.94369899999999995</v>
       </c>
       <c r="BP17" s="1">
-        <v>1463.210000</v>
+        <v>1463.21</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-566.551000</v>
+        <v>-566.55100000000004</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>3407.855952</v>
+        <v>3407.8559519999999</v>
       </c>
       <c r="BT17" s="1">
         <v>0.946627</v>
       </c>
       <c r="BU17" s="1">
-        <v>1589.290000</v>
+        <v>1589.29</v>
       </c>
       <c r="BV17" s="1">
-        <v>-816.325000</v>
+        <v>-816.32500000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>3418.784338</v>
+        <v>3418.7843379999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>0.949662</v>
+        <v>0.94966200000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1735.920000</v>
+        <v>1735.92</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1090.470000</v>
+        <v>-1090.47</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
         <v>3431.605888</v>
       </c>
       <c r="CD17" s="1">
-        <v>0.953224</v>
+        <v>0.95322399999999996</v>
       </c>
       <c r="CE17" s="1">
-        <v>2144.120000</v>
+        <v>2144.12</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1757.680000</v>
+        <v>-1757.68</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>3261.034691</v>
+        <v>3261.0346909999998</v>
       </c>
       <c r="B18" s="1">
-        <v>0.905843</v>
+        <v>0.90584299999999995</v>
       </c>
       <c r="C18" s="1">
-        <v>1138.360000</v>
+        <v>1138.3599999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-252.499000</v>
+        <v>-252.499</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>3271.418437</v>
+        <v>3271.4184369999998</v>
       </c>
       <c r="G18" s="1">
-        <v>0.908727</v>
+        <v>0.90872699999999995</v>
       </c>
       <c r="H18" s="1">
-        <v>1160.810000</v>
+        <v>1160.81</v>
       </c>
       <c r="I18" s="1">
-        <v>-213.076000</v>
+        <v>-213.07599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>3281.493671</v>
+        <v>3281.4936710000002</v>
       </c>
       <c r="L18" s="1">
-        <v>0.911526</v>
+        <v>0.91152599999999995</v>
       </c>
       <c r="M18" s="1">
-        <v>1190.030000</v>
+        <v>1190.03</v>
       </c>
       <c r="N18" s="1">
-        <v>-149.387000</v>
+        <v>-149.387</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
         <v>3292.022782</v>
       </c>
       <c r="Q18" s="1">
-        <v>0.914451</v>
+        <v>0.91445100000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1198.230000</v>
+        <v>1198.23</v>
       </c>
       <c r="S18" s="1">
-        <v>-127.292000</v>
+        <v>-127.292</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>3302.580092</v>
+        <v>3302.5800920000001</v>
       </c>
       <c r="V18" s="1">
-        <v>0.917383</v>
+        <v>0.91738299999999995</v>
       </c>
       <c r="W18" s="1">
-        <v>1205.910000</v>
+        <v>1205.9100000000001</v>
       </c>
       <c r="X18" s="1">
-        <v>-106.524000</v>
+        <v>-106.524</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>3313.081885</v>
+        <v>3313.0818850000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>0.920301</v>
+        <v>0.92030100000000004</v>
       </c>
       <c r="AB18" s="1">
-        <v>1213.530000</v>
+        <v>1213.53</v>
       </c>
       <c r="AC18" s="1">
-        <v>-89.340100</v>
+        <v>-89.340100000000007</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>3323.561857</v>
+        <v>3323.5618570000001</v>
       </c>
       <c r="AF18" s="1">
-        <v>0.923212</v>
+        <v>0.92321200000000003</v>
       </c>
       <c r="AG18" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="AH18" s="1">
-        <v>-84.691300</v>
+        <v>-84.691299999999998</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>3333.419348</v>
+        <v>3333.4193479999999</v>
       </c>
       <c r="AK18" s="1">
-        <v>0.925950</v>
+        <v>0.92595000000000005</v>
       </c>
       <c r="AL18" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM18" s="1">
-        <v>-87.473300</v>
+        <v>-87.473299999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>3343.914692</v>
+        <v>3343.9146919999998</v>
       </c>
       <c r="AP18" s="1">
-        <v>0.928865</v>
+        <v>0.92886500000000005</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1233.080000</v>
+        <v>1233.08</v>
       </c>
       <c r="AR18" s="1">
-        <v>-98.785400</v>
+        <v>-98.785399999999996</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>3354.625302</v>
+        <v>3354.6253019999999</v>
       </c>
       <c r="AU18" s="1">
-        <v>0.931840</v>
+        <v>0.93184</v>
       </c>
       <c r="AV18" s="1">
-        <v>1242.730000</v>
+        <v>1242.73</v>
       </c>
       <c r="AW18" s="1">
-        <v>-117.333000</v>
+        <v>-117.333</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
         <v>3365.622104</v>
       </c>
       <c r="AZ18" s="1">
-        <v>0.934895</v>
+        <v>0.93489500000000003</v>
       </c>
       <c r="BA18" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="BB18" s="1">
-        <v>-134.173000</v>
+        <v>-134.173</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>3375.928474</v>
+        <v>3375.9284739999998</v>
       </c>
       <c r="BE18" s="1">
-        <v>0.937758</v>
+        <v>0.93775799999999998</v>
       </c>
       <c r="BF18" s="1">
-        <v>1289.060000</v>
+        <v>1289.06</v>
       </c>
       <c r="BG18" s="1">
-        <v>-213.448000</v>
+        <v>-213.44800000000001</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>3387.290860</v>
+        <v>3387.2908600000001</v>
       </c>
       <c r="BJ18" s="1">
-        <v>0.940914</v>
+        <v>0.94091400000000003</v>
       </c>
       <c r="BK18" s="1">
-        <v>1354.880000</v>
+        <v>1354.88</v>
       </c>
       <c r="BL18" s="1">
-        <v>-346.881000</v>
+        <v>-346.88099999999997</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>3397.737102</v>
       </c>
       <c r="BO18" s="1">
-        <v>0.943816</v>
+        <v>0.94381599999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1463.180000</v>
+        <v>1463.18</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-566.561000</v>
+        <v>-566.56100000000004</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>3408.271104</v>
+        <v>3408.2711039999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>0.946742</v>
+        <v>0.94674199999999997</v>
       </c>
       <c r="BU18" s="1">
-        <v>1589.450000</v>
+        <v>1589.45</v>
       </c>
       <c r="BV18" s="1">
-        <v>-816.426000</v>
+        <v>-816.42600000000004</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>3419.512929</v>
       </c>
       <c r="BY18" s="1">
-        <v>0.949865</v>
+        <v>0.94986499999999996</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1735.730000</v>
+        <v>1735.73</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1090.410000</v>
+        <v>-1090.4100000000001</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
         <v>3431.838017</v>
       </c>
       <c r="CD18" s="1">
-        <v>0.953288</v>
+        <v>0.95328800000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>2144.450000</v>
+        <v>2144.4499999999998</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1757.690000</v>
+        <v>-1757.69</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>3261.377922</v>
+        <v>3261.3779220000001</v>
       </c>
       <c r="B19" s="1">
-        <v>0.905938</v>
+        <v>0.90593800000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>1138.300000</v>
+        <v>1138.3</v>
       </c>
       <c r="D19" s="1">
-        <v>-252.730000</v>
+        <v>-252.73</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>3271.761174</v>
+        <v>3271.7611740000002</v>
       </c>
       <c r="G19" s="1">
-        <v>0.908823</v>
+        <v>0.90882300000000005</v>
       </c>
       <c r="H19" s="1">
-        <v>1160.810000</v>
+        <v>1160.81</v>
       </c>
       <c r="I19" s="1">
-        <v>-213.140000</v>
+        <v>-213.14</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>3281.907830</v>
+        <v>3281.9078300000001</v>
       </c>
       <c r="L19" s="1">
-        <v>0.911641</v>
+        <v>0.91164100000000003</v>
       </c>
       <c r="M19" s="1">
-        <v>1189.980000</v>
+        <v>1189.98</v>
       </c>
       <c r="N19" s="1">
-        <v>-148.867000</v>
+        <v>-148.86699999999999</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>3292.455295</v>
+        <v>3292.4552950000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>0.914571</v>
+        <v>0.91457100000000002</v>
       </c>
       <c r="R19" s="1">
-        <v>1198.240000</v>
+        <v>1198.24</v>
       </c>
       <c r="S19" s="1">
-        <v>-127.233000</v>
+        <v>-127.233</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>3302.871771</v>
+        <v>3302.8717710000001</v>
       </c>
       <c r="V19" s="1">
-        <v>0.917464</v>
+        <v>0.91746399999999995</v>
       </c>
       <c r="W19" s="1">
-        <v>1205.910000</v>
+        <v>1205.9100000000001</v>
       </c>
       <c r="X19" s="1">
-        <v>-106.597000</v>
+        <v>-106.59699999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>3313.428125</v>
+        <v>3313.4281249999999</v>
       </c>
       <c r="AA19" s="1">
-        <v>0.920397</v>
+        <v>0.92039700000000002</v>
       </c>
       <c r="AB19" s="1">
-        <v>1213.710000</v>
+        <v>1213.71</v>
       </c>
       <c r="AC19" s="1">
-        <v>-89.374800</v>
+        <v>-89.374799999999993</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>3323.906080</v>
+        <v>3323.9060800000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>0.923307</v>
+        <v>0.92330699999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="AH19" s="1">
-        <v>-84.604300</v>
+        <v>-84.604299999999995</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>3333.766082</v>
+        <v>3333.7660820000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>0.926046</v>
+        <v>0.92604600000000004</v>
       </c>
       <c r="AL19" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AM19" s="1">
-        <v>-87.482600</v>
+        <v>-87.482600000000005</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>3344.633396</v>
+        <v>3344.6333960000002</v>
       </c>
       <c r="AP19" s="1">
-        <v>0.929065</v>
+        <v>0.92906500000000003</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1233.090000</v>
+        <v>1233.0899999999999</v>
       </c>
       <c r="AR19" s="1">
-        <v>-98.815100</v>
+        <v>-98.815100000000001</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>3355.357404</v>
+        <v>3355.3574039999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>0.932044</v>
+        <v>0.93204399999999998</v>
       </c>
       <c r="AV19" s="1">
-        <v>1242.750000</v>
+        <v>1242.75</v>
       </c>
       <c r="AW19" s="1">
-        <v>-117.319000</v>
+        <v>-117.319</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>3365.998111</v>
+        <v>3365.9981109999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>0.934999</v>
+        <v>0.93499900000000002</v>
       </c>
       <c r="BA19" s="1">
-        <v>1250.830000</v>
+        <v>1250.83</v>
       </c>
       <c r="BB19" s="1">
-        <v>-134.174000</v>
+        <v>-134.17400000000001</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>3376.304937</v>
+        <v>3376.3049369999999</v>
       </c>
       <c r="BE19" s="1">
-        <v>0.937862</v>
+        <v>0.93786199999999997</v>
       </c>
       <c r="BF19" s="1">
-        <v>1289.030000</v>
+        <v>1289.03</v>
       </c>
       <c r="BG19" s="1">
-        <v>-213.441000</v>
+        <v>-213.441</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>3387.671291</v>
+        <v>3387.6712910000001</v>
       </c>
       <c r="BJ19" s="1">
-        <v>0.941020</v>
+        <v>0.94101999999999997</v>
       </c>
       <c r="BK19" s="1">
-        <v>1354.860000</v>
+        <v>1354.86</v>
       </c>
       <c r="BL19" s="1">
-        <v>-346.880000</v>
+        <v>-346.88</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>3398.435437</v>
+        <v>3398.4354370000001</v>
       </c>
       <c r="BO19" s="1">
-        <v>0.944010</v>
+        <v>0.94401000000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1463.140000</v>
+        <v>1463.14</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-566.588000</v>
+        <v>-566.58799999999997</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>3409.018574</v>
+        <v>3409.0185740000002</v>
       </c>
       <c r="BT19" s="1">
-        <v>0.946950</v>
+        <v>0.94694999999999996</v>
       </c>
       <c r="BU19" s="1">
-        <v>1589.460000</v>
+        <v>1589.46</v>
       </c>
       <c r="BV19" s="1">
-        <v>-816.440000</v>
+        <v>-816.44</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>3419.657761</v>
+        <v>3419.6577609999999</v>
       </c>
       <c r="BY19" s="1">
         <v>0.949905</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1735.770000</v>
+        <v>1735.77</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1090.460000</v>
+        <v>-1090.46</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>3432.357825</v>
       </c>
       <c r="CD19" s="1">
-        <v>0.953433</v>
+        <v>0.95343299999999997</v>
       </c>
       <c r="CE19" s="1">
-        <v>2142.940000</v>
+        <v>2142.94</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1757.950000</v>
+        <v>-1757.95</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>3261.799521</v>
+        <v>3261.7995209999999</v>
       </c>
       <c r="B20" s="1">
-        <v>0.906055</v>
+        <v>0.90605500000000005</v>
       </c>
       <c r="C20" s="1">
-        <v>1138.210000</v>
+        <v>1138.21</v>
       </c>
       <c r="D20" s="1">
-        <v>-252.715000</v>
+        <v>-252.715</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>3272.185747</v>
       </c>
       <c r="G20" s="1">
-        <v>0.908940</v>
+        <v>0.90893999999999997</v>
       </c>
       <c r="H20" s="1">
-        <v>1160.890000</v>
+        <v>1160.8900000000001</v>
       </c>
       <c r="I20" s="1">
-        <v>-213.089000</v>
+        <v>-213.089</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
         <v>3282.199478</v>
       </c>
       <c r="L20" s="1">
-        <v>0.911722</v>
+        <v>0.91172200000000003</v>
       </c>
       <c r="M20" s="1">
-        <v>1189.810000</v>
+        <v>1189.81</v>
       </c>
       <c r="N20" s="1">
-        <v>-149.177000</v>
+        <v>-149.17699999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>3292.733016</v>
+        <v>3292.7330160000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>0.914648</v>
+        <v>0.91464800000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>1198.260000</v>
+        <v>1198.26</v>
       </c>
       <c r="S20" s="1">
-        <v>-127.310000</v>
+        <v>-127.31</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>3303.219434</v>
+        <v>3303.2194340000001</v>
       </c>
       <c r="V20" s="1">
-        <v>0.917561</v>
+        <v>0.91756099999999996</v>
       </c>
       <c r="W20" s="1">
-        <v>1205.870000</v>
+        <v>1205.8699999999999</v>
       </c>
       <c r="X20" s="1">
-        <v>-106.631000</v>
+        <v>-106.631</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>3313.773805</v>
+        <v>3313.7738049999998</v>
       </c>
       <c r="AA20" s="1">
-        <v>0.920493</v>
+        <v>0.92049300000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>1213.700000</v>
+        <v>1213.7</v>
       </c>
       <c r="AC20" s="1">
-        <v>-89.372500</v>
+        <v>-89.372500000000002</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>3324.248319</v>
+        <v>3324.2483189999998</v>
       </c>
       <c r="AF20" s="1">
-        <v>0.923402</v>
+        <v>0.92340199999999995</v>
       </c>
       <c r="AG20" s="1">
-        <v>1218.340000</v>
+        <v>1218.3399999999999</v>
       </c>
       <c r="AH20" s="1">
-        <v>-84.653300</v>
+        <v>-84.653300000000002</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
         <v>3334.460482</v>
       </c>
       <c r="AK20" s="1">
-        <v>0.926239</v>
+        <v>0.92623900000000003</v>
       </c>
       <c r="AL20" s="1">
-        <v>1225.330000</v>
+        <v>1225.33</v>
       </c>
       <c r="AM20" s="1">
-        <v>-87.482300</v>
+        <v>-87.482299999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>3344.992995</v>
+        <v>3344.9929950000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>0.929165</v>
+        <v>0.92916500000000002</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1233.090000</v>
+        <v>1233.0899999999999</v>
       </c>
       <c r="AR20" s="1">
-        <v>-98.813300</v>
+        <v>-98.813299999999998</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>3355.742789</v>
+        <v>3355.7427889999999</v>
       </c>
       <c r="AU20" s="1">
-        <v>0.932151</v>
+        <v>0.93215099999999995</v>
       </c>
       <c r="AV20" s="1">
-        <v>1242.730000</v>
+        <v>1242.73</v>
       </c>
       <c r="AW20" s="1">
-        <v>-117.355000</v>
+        <v>-117.355</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
         <v>3366.375031</v>
       </c>
       <c r="AZ20" s="1">
-        <v>0.935104</v>
+        <v>0.93510400000000005</v>
       </c>
       <c r="BA20" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="BB20" s="1">
-        <v>-134.153000</v>
+        <v>-134.15299999999999</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>3376.975561</v>
+        <v>3376.9755610000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>0.938049</v>
+        <v>0.93804900000000002</v>
       </c>
       <c r="BF20" s="1">
-        <v>1289.030000</v>
+        <v>1289.03</v>
       </c>
       <c r="BG20" s="1">
-        <v>-213.465000</v>
+        <v>-213.465</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
         <v>3388.352762</v>
       </c>
       <c r="BJ20" s="1">
-        <v>0.941209</v>
+        <v>0.94120899999999996</v>
       </c>
       <c r="BK20" s="1">
-        <v>1354.850000</v>
+        <v>1354.85</v>
       </c>
       <c r="BL20" s="1">
-        <v>-346.854000</v>
+        <v>-346.85399999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>3398.570348</v>
+        <v>3398.5703480000002</v>
       </c>
       <c r="BO20" s="1">
-        <v>0.944047</v>
+        <v>0.94404699999999997</v>
       </c>
       <c r="BP20" s="1">
-        <v>1463.180000</v>
+        <v>1463.18</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-566.625000</v>
+        <v>-566.625</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>3409.190190</v>
+        <v>3409.1901899999998</v>
       </c>
       <c r="BT20" s="1">
-        <v>0.946997</v>
+        <v>0.94699699999999998</v>
       </c>
       <c r="BU20" s="1">
-        <v>1589.540000</v>
+        <v>1589.54</v>
       </c>
       <c r="BV20" s="1">
-        <v>-816.492000</v>
+        <v>-816.49199999999996</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>3420.082336</v>
+        <v>3420.0823359999999</v>
       </c>
       <c r="BY20" s="1">
-        <v>0.950023</v>
+        <v>0.95002299999999995</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1735.850000</v>
+        <v>1735.85</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1090.440000</v>
+        <v>-1090.44</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>3432.877135</v>
+        <v>3432.8771350000002</v>
       </c>
       <c r="CD20" s="1">
-        <v>0.953577</v>
+        <v>0.95357700000000001</v>
       </c>
       <c r="CE20" s="1">
-        <v>2143.250000</v>
+        <v>2143.25</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1757.590000</v>
+        <v>-1757.59</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>3262.075794</v>
+        <v>3262.0757939999999</v>
       </c>
       <c r="B21" s="1">
-        <v>0.906132</v>
+        <v>0.90613200000000005</v>
       </c>
       <c r="C21" s="1">
-        <v>1138.570000</v>
+        <v>1138.57</v>
       </c>
       <c r="D21" s="1">
-        <v>-252.760000</v>
+        <v>-252.76</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
         <v>3272.458083</v>
       </c>
       <c r="G21" s="1">
-        <v>0.909016</v>
+        <v>0.90901600000000005</v>
       </c>
       <c r="H21" s="1">
-        <v>1160.860000</v>
+        <v>1160.8599999999999</v>
       </c>
       <c r="I21" s="1">
-        <v>-212.998000</v>
+        <v>-212.99799999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>3282.544694</v>
+        <v>3282.5446940000002</v>
       </c>
       <c r="L21" s="1">
-        <v>0.911818</v>
+        <v>0.91181800000000002</v>
       </c>
       <c r="M21" s="1">
-        <v>1189.910000</v>
+        <v>1189.9100000000001</v>
       </c>
       <c r="N21" s="1">
-        <v>-148.922000</v>
+        <v>-148.922</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>3293.080712</v>
+        <v>3293.0807119999999</v>
       </c>
       <c r="Q21" s="1">
-        <v>0.914745</v>
+        <v>0.91474500000000003</v>
       </c>
       <c r="R21" s="1">
-        <v>1198.160000</v>
+        <v>1198.1600000000001</v>
       </c>
       <c r="S21" s="1">
-        <v>-127.330000</v>
+        <v>-127.33</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>3303.559722</v>
@@ -5424,482 +5840,482 @@
         <v>0.917655</v>
       </c>
       <c r="W21" s="1">
-        <v>1205.950000</v>
+        <v>1205.95</v>
       </c>
       <c r="X21" s="1">
-        <v>-106.581000</v>
+        <v>-106.581</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>3314.473310</v>
+        <v>3314.4733099999999</v>
       </c>
       <c r="AA21" s="1">
-        <v>0.920687</v>
+        <v>0.92068700000000003</v>
       </c>
       <c r="AB21" s="1">
-        <v>1213.690000</v>
+        <v>1213.69</v>
       </c>
       <c r="AC21" s="1">
-        <v>-89.433100</v>
+        <v>-89.433099999999996</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>3324.938254</v>
+        <v>3324.9382540000001</v>
       </c>
       <c r="AF21" s="1">
-        <v>0.923594</v>
+        <v>0.92359400000000003</v>
       </c>
       <c r="AG21" s="1">
-        <v>1218.350000</v>
+        <v>1218.3499999999999</v>
       </c>
       <c r="AH21" s="1">
-        <v>-84.647600</v>
+        <v>-84.647599999999997</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>3334.811617</v>
+        <v>3334.8116169999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>0.926337</v>
+        <v>0.92633699999999997</v>
       </c>
       <c r="AL21" s="1">
-        <v>1225.330000</v>
+        <v>1225.33</v>
       </c>
       <c r="AM21" s="1">
-        <v>-87.453900</v>
+        <v>-87.453900000000004</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>3345.356594</v>
+        <v>3345.3565939999999</v>
       </c>
       <c r="AP21" s="1">
-        <v>0.929266</v>
+        <v>0.92926600000000004</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1233.060000</v>
+        <v>1233.06</v>
       </c>
       <c r="AR21" s="1">
-        <v>-98.781000</v>
+        <v>-98.781000000000006</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>3356.110821</v>
+        <v>3356.1108210000002</v>
       </c>
       <c r="AU21" s="1">
         <v>0.932253</v>
       </c>
       <c r="AV21" s="1">
-        <v>1242.740000</v>
+        <v>1242.74</v>
       </c>
       <c r="AW21" s="1">
-        <v>-117.338000</v>
+        <v>-117.33799999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>3367.030278</v>
+        <v>3367.0302780000002</v>
       </c>
       <c r="AZ21" s="1">
-        <v>0.935286</v>
+        <v>0.93528599999999995</v>
       </c>
       <c r="BA21" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="BB21" s="1">
-        <v>-134.166000</v>
+        <v>-134.166</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>3377.390184</v>
+        <v>3377.3901839999999</v>
       </c>
       <c r="BE21" s="1">
         <v>0.938164</v>
       </c>
       <c r="BF21" s="1">
-        <v>1289.040000</v>
+        <v>1289.04</v>
       </c>
       <c r="BG21" s="1">
-        <v>-213.441000</v>
+        <v>-213.441</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>3388.796713</v>
+        <v>3388.7967130000002</v>
       </c>
       <c r="BJ21" s="1">
-        <v>0.941332</v>
+        <v>0.94133199999999995</v>
       </c>
       <c r="BK21" s="1">
-        <v>1354.850000</v>
+        <v>1354.85</v>
       </c>
       <c r="BL21" s="1">
-        <v>-346.868000</v>
+        <v>-346.86799999999999</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>3398.981532</v>
+        <v>3398.9815319999998</v>
       </c>
       <c r="BO21" s="1">
-        <v>0.944162</v>
+        <v>0.94416199999999995</v>
       </c>
       <c r="BP21" s="1">
-        <v>1463.180000</v>
+        <v>1463.18</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-566.596000</v>
+        <v>-566.596</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>3409.576574</v>
+        <v>3409.5765740000002</v>
       </c>
       <c r="BT21" s="1">
-        <v>0.947105</v>
+        <v>0.94710499999999997</v>
       </c>
       <c r="BU21" s="1">
-        <v>1589.610000</v>
+        <v>1589.61</v>
       </c>
       <c r="BV21" s="1">
-        <v>-816.541000</v>
+        <v>-816.54100000000005</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>3420.532207</v>
+        <v>3420.5322070000002</v>
       </c>
       <c r="BY21" s="1">
-        <v>0.950148</v>
+        <v>0.95014799999999999</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1735.970000</v>
+        <v>1735.97</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1090.510000</v>
+        <v>-1090.51</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>3433.430176</v>
+        <v>3433.4301759999998</v>
       </c>
       <c r="CD21" s="1">
         <v>0.953731</v>
       </c>
       <c r="CE21" s="1">
-        <v>2144.550000</v>
+        <v>2144.5500000000002</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1757.770000</v>
+        <v>-1757.77</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>3262.419520</v>
+        <v>3262.4195199999999</v>
       </c>
       <c r="B22" s="1">
-        <v>0.906228</v>
+        <v>0.90622800000000003</v>
       </c>
       <c r="C22" s="1">
-        <v>1138.290000</v>
+        <v>1138.29</v>
       </c>
       <c r="D22" s="1">
-        <v>-252.804000</v>
+        <v>-252.804</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
         <v>3272.802275</v>
       </c>
       <c r="G22" s="1">
-        <v>0.909112</v>
+        <v>0.90911200000000003</v>
       </c>
       <c r="H22" s="1">
-        <v>1160.780000</v>
+        <v>1160.78</v>
       </c>
       <c r="I22" s="1">
-        <v>-213.183000</v>
+        <v>-213.18299999999999</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>3282.892573</v>
+        <v>3282.8925730000001</v>
       </c>
       <c r="L22" s="1">
-        <v>0.911915</v>
+        <v>0.91191500000000003</v>
       </c>
       <c r="M22" s="1">
-        <v>1190.110000</v>
+        <v>1190.1099999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-149.288000</v>
+        <v>-149.28800000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
         <v>3293.779575</v>
       </c>
       <c r="Q22" s="1">
-        <v>0.914939</v>
+        <v>0.91493899999999995</v>
       </c>
       <c r="R22" s="1">
-        <v>1198.160000</v>
+        <v>1198.1600000000001</v>
       </c>
       <c r="S22" s="1">
-        <v>-127.273000</v>
+        <v>-127.273</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>3304.246680</v>
+        <v>3304.2466800000002</v>
       </c>
       <c r="V22" s="1">
-        <v>0.917846</v>
+        <v>0.91784600000000005</v>
       </c>
       <c r="W22" s="1">
-        <v>1205.910000</v>
+        <v>1205.9100000000001</v>
       </c>
       <c r="X22" s="1">
-        <v>-106.588000</v>
+        <v>-106.58799999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>3314.821887</v>
+        <v>3314.8218870000001</v>
       </c>
       <c r="AA22" s="1">
-        <v>0.920784</v>
+        <v>0.92078400000000005</v>
       </c>
       <c r="AB22" s="1">
-        <v>1213.590000</v>
+        <v>1213.5899999999999</v>
       </c>
       <c r="AC22" s="1">
-        <v>-89.284100</v>
+        <v>-89.284099999999995</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>3325.279006</v>
+        <v>3325.2790060000002</v>
       </c>
       <c r="AF22" s="1">
-        <v>0.923689</v>
+        <v>0.92368899999999998</v>
       </c>
       <c r="AG22" s="1">
-        <v>1218.340000</v>
+        <v>1218.3399999999999</v>
       </c>
       <c r="AH22" s="1">
-        <v>-84.677000</v>
+        <v>-84.677000000000007</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>3335.159312</v>
+        <v>3335.1593120000002</v>
       </c>
       <c r="AK22" s="1">
-        <v>0.926433</v>
+        <v>0.92643299999999995</v>
       </c>
       <c r="AL22" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM22" s="1">
-        <v>-87.481100</v>
+        <v>-87.481099999999998</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>3346.022227</v>
+        <v>3346.0222269999999</v>
       </c>
       <c r="AP22" s="1">
-        <v>0.929451</v>
+        <v>0.92945100000000003</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1233.070000</v>
+        <v>1233.07</v>
       </c>
       <c r="AR22" s="1">
-        <v>-98.769900</v>
+        <v>-98.769900000000007</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>3356.780916</v>
+        <v>3356.7809160000002</v>
       </c>
       <c r="AU22" s="1">
-        <v>0.932439</v>
+        <v>0.93243900000000002</v>
       </c>
       <c r="AV22" s="1">
-        <v>1242.710000</v>
+        <v>1242.71</v>
       </c>
       <c r="AW22" s="1">
-        <v>-117.320000</v>
+        <v>-117.32</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>3367.459814</v>
+        <v>3367.4598139999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>0.935406</v>
+        <v>0.93540599999999996</v>
       </c>
       <c r="BA22" s="1">
-        <v>1250.840000</v>
+        <v>1250.8399999999999</v>
       </c>
       <c r="BB22" s="1">
-        <v>-134.183000</v>
+        <v>-134.18299999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>3377.778552</v>
+        <v>3377.7785520000002</v>
       </c>
       <c r="BE22" s="1">
-        <v>0.938272</v>
+        <v>0.93827199999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1289.020000</v>
+        <v>1289.02</v>
       </c>
       <c r="BG22" s="1">
-        <v>-213.491000</v>
+        <v>-213.49100000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
         <v>3389.172153</v>
       </c>
       <c r="BJ22" s="1">
-        <v>0.941437</v>
+        <v>0.94143699999999997</v>
       </c>
       <c r="BK22" s="1">
-        <v>1354.870000</v>
+        <v>1354.87</v>
       </c>
       <c r="BL22" s="1">
-        <v>-346.876000</v>
+        <v>-346.87599999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>3399.375355</v>
+        <v>3399.3753550000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>0.944271</v>
+        <v>0.94427099999999997</v>
       </c>
       <c r="BP22" s="1">
-        <v>1463.160000</v>
+        <v>1463.16</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-566.598000</v>
+        <v>-566.59799999999996</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>3410.000190</v>
+        <v>3410.0001900000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>0.947222</v>
+        <v>0.94722200000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1589.650000</v>
+        <v>1589.65</v>
       </c>
       <c r="BV22" s="1">
-        <v>-816.549000</v>
+        <v>-816.54899999999998</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>3420.961743</v>
+        <v>3420.9617429999998</v>
       </c>
       <c r="BY22" s="1">
-        <v>0.950267</v>
+        <v>0.95026699999999997</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1735.930000</v>
+        <v>1735.93</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1090.440000</v>
+        <v>-1090.44</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>3433.957423</v>
+        <v>3433.9574229999998</v>
       </c>
       <c r="CD22" s="1">
-        <v>0.953877</v>
+        <v>0.95387699999999997</v>
       </c>
       <c r="CE22" s="1">
-        <v>2142.970000</v>
+        <v>2142.9699999999998</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1757.700000</v>
+        <v>-1757.7</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
         <v>3262.762753</v>
       </c>
       <c r="B23" s="1">
-        <v>0.906323</v>
+        <v>0.90632299999999999</v>
       </c>
       <c r="C23" s="1">
-        <v>1138.520000</v>
+        <v>1138.52</v>
       </c>
       <c r="D23" s="1">
-        <v>-252.560000</v>
+        <v>-252.56</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>3273.148483</v>
+        <v>3273.1484829999999</v>
       </c>
       <c r="G23" s="1">
-        <v>0.909208</v>
+        <v>0.90920800000000002</v>
       </c>
       <c r="H23" s="1">
-        <v>1160.560000</v>
+        <v>1160.56</v>
       </c>
       <c r="I23" s="1">
-        <v>-213.209000</v>
+        <v>-213.209</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>3283.584805</v>
@@ -5908,996 +6324,997 @@
         <v>0.912107</v>
       </c>
       <c r="M23" s="1">
-        <v>1189.810000</v>
+        <v>1189.81</v>
       </c>
       <c r="N23" s="1">
-        <v>-149.011000</v>
+        <v>-149.011</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
         <v>3294.128295</v>
       </c>
       <c r="Q23" s="1">
-        <v>0.915036</v>
+        <v>0.91503599999999996</v>
       </c>
       <c r="R23" s="1">
-        <v>1198.200000</v>
+        <v>1198.2</v>
       </c>
       <c r="S23" s="1">
-        <v>-127.207000</v>
+        <v>-127.20699999999999</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>3304.580953</v>
+        <v>3304.5809530000001</v>
       </c>
       <c r="V23" s="1">
-        <v>0.917939</v>
+        <v>0.91793899999999995</v>
       </c>
       <c r="W23" s="1">
-        <v>1205.830000</v>
+        <v>1205.83</v>
       </c>
       <c r="X23" s="1">
-        <v>-106.549000</v>
+        <v>-106.54900000000001</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
         <v>3315.173221</v>
       </c>
       <c r="AA23" s="1">
-        <v>0.920881</v>
+        <v>0.92088099999999995</v>
       </c>
       <c r="AB23" s="1">
-        <v>1213.670000</v>
+        <v>1213.67</v>
       </c>
       <c r="AC23" s="1">
-        <v>-89.408200</v>
+        <v>-89.408199999999994</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>3325.622239</v>
+        <v>3325.6222389999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>0.923784</v>
+        <v>0.92378400000000005</v>
       </c>
       <c r="AG23" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="AH23" s="1">
-        <v>-84.714500</v>
+        <v>-84.714500000000001</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>3335.819024</v>
+        <v>3335.8190239999999</v>
       </c>
       <c r="AK23" s="1">
         <v>0.926616</v>
       </c>
       <c r="AL23" s="1">
-        <v>1225.350000</v>
+        <v>1225.3499999999999</v>
       </c>
       <c r="AM23" s="1">
-        <v>-87.495100</v>
+        <v>-87.495099999999994</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>3346.467601</v>
+        <v>3346.4676009999998</v>
       </c>
       <c r="AP23" s="1">
-        <v>0.929574</v>
+        <v>0.92957400000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1233.090000</v>
+        <v>1233.0899999999999</v>
       </c>
       <c r="AR23" s="1">
-        <v>-98.818100</v>
+        <v>-98.818100000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>3357.239715</v>
+        <v>3357.2397150000002</v>
       </c>
       <c r="AU23" s="1">
-        <v>0.932567</v>
+        <v>0.93256700000000003</v>
       </c>
       <c r="AV23" s="1">
-        <v>1242.730000</v>
+        <v>1242.73</v>
       </c>
       <c r="AW23" s="1">
-        <v>-117.346000</v>
+        <v>-117.346</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
         <v>3367.832774</v>
       </c>
       <c r="AZ23" s="1">
-        <v>0.935509</v>
+        <v>0.93550900000000003</v>
       </c>
       <c r="BA23" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="BB23" s="1">
-        <v>-134.168000</v>
+        <v>-134.16800000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>3378.159479</v>
+        <v>3378.1594789999999</v>
       </c>
       <c r="BE23" s="1">
-        <v>0.938378</v>
+        <v>0.93837800000000005</v>
       </c>
       <c r="BF23" s="1">
-        <v>1289.030000</v>
+        <v>1289.03</v>
       </c>
       <c r="BG23" s="1">
-        <v>-213.480000</v>
+        <v>-213.48</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
         <v>3389.548616</v>
       </c>
       <c r="BJ23" s="1">
-        <v>0.941541</v>
+        <v>0.94154099999999996</v>
       </c>
       <c r="BK23" s="1">
-        <v>1354.860000</v>
+        <v>1354.86</v>
       </c>
       <c r="BL23" s="1">
-        <v>-346.880000</v>
+        <v>-346.88</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>3399.796460</v>
+        <v>3399.79646</v>
       </c>
       <c r="BO23" s="1">
-        <v>0.944388</v>
+        <v>0.94438800000000001</v>
       </c>
       <c r="BP23" s="1">
-        <v>1463.220000</v>
+        <v>1463.22</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-566.568000</v>
+        <v>-566.56799999999998</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>3410.419277</v>
       </c>
       <c r="BT23" s="1">
-        <v>0.947339</v>
+        <v>0.94733900000000004</v>
       </c>
       <c r="BU23" s="1">
-        <v>1589.820000</v>
+        <v>1589.82</v>
       </c>
       <c r="BV23" s="1">
-        <v>-816.676000</v>
+        <v>-816.67600000000004</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>3421.382848</v>
+        <v>3421.3828480000002</v>
       </c>
       <c r="BY23" s="1">
-        <v>0.950384</v>
+        <v>0.95038400000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1735.880000</v>
+        <v>1735.88</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1090.400000</v>
+        <v>-1090.4000000000001</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>3434.476237</v>
+        <v>3434.4762369999999</v>
       </c>
       <c r="CD23" s="1">
-        <v>0.954021</v>
+        <v>0.95402100000000001</v>
       </c>
       <c r="CE23" s="1">
-        <v>2143.960000</v>
+        <v>2143.96</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1759.850000</v>
+        <v>-1759.85</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
         <v>3263.443761</v>
       </c>
       <c r="B24" s="1">
-        <v>0.906512</v>
+        <v>0.90651199999999998</v>
       </c>
       <c r="C24" s="1">
-        <v>1138.550000</v>
+        <v>1138.55</v>
       </c>
       <c r="D24" s="1">
-        <v>-252.745000</v>
+        <v>-252.745</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>3273.835441</v>
+        <v>3273.8354410000002</v>
       </c>
       <c r="G24" s="1">
-        <v>0.909399</v>
+        <v>0.90939899999999996</v>
       </c>
       <c r="H24" s="1">
-        <v>1160.610000</v>
+        <v>1160.6099999999999</v>
       </c>
       <c r="I24" s="1">
-        <v>-212.897000</v>
+        <v>-212.89699999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>3283.931045</v>
+        <v>3283.9310449999998</v>
       </c>
       <c r="L24" s="1">
-        <v>0.912203</v>
+        <v>0.91220299999999999</v>
       </c>
       <c r="M24" s="1">
-        <v>1189.800000</v>
+        <v>1189.8</v>
       </c>
       <c r="N24" s="1">
-        <v>-148.974000</v>
+        <v>-148.97399999999999</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>3294.472982</v>
+        <v>3294.4729819999998</v>
       </c>
       <c r="Q24" s="1">
-        <v>0.915131</v>
+        <v>0.91513100000000003</v>
       </c>
       <c r="R24" s="1">
-        <v>1198.200000</v>
+        <v>1198.2</v>
       </c>
       <c r="S24" s="1">
-        <v>-127.229000</v>
+        <v>-127.229</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>3304.931624</v>
+        <v>3304.9316239999998</v>
       </c>
       <c r="V24" s="1">
-        <v>0.918037</v>
+        <v>0.91803699999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1205.920000</v>
+        <v>1205.92</v>
       </c>
       <c r="X24" s="1">
-        <v>-106.539000</v>
+        <v>-106.539</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>3315.830752</v>
+        <v>3315.8307519999998</v>
       </c>
       <c r="AA24" s="1">
-        <v>0.921064</v>
+        <v>0.92106399999999999</v>
       </c>
       <c r="AB24" s="1">
-        <v>1213.760000</v>
+        <v>1213.76</v>
       </c>
       <c r="AC24" s="1">
-        <v>-89.442800</v>
+        <v>-89.442800000000005</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>3326.053260</v>
+        <v>3326.0532600000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>0.923904</v>
+        <v>0.92390399999999995</v>
       </c>
       <c r="AG24" s="1">
-        <v>1218.330000</v>
+        <v>1218.33</v>
       </c>
       <c r="AH24" s="1">
-        <v>-84.662300</v>
+        <v>-84.662300000000002</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>3336.206368</v>
+        <v>3336.2063680000001</v>
       </c>
       <c r="AK24" s="1">
-        <v>0.926724</v>
+        <v>0.92672399999999999</v>
       </c>
       <c r="AL24" s="1">
-        <v>1225.340000</v>
+        <v>1225.3399999999999</v>
       </c>
       <c r="AM24" s="1">
-        <v>-87.476600</v>
+        <v>-87.476600000000005</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>3346.826209</v>
+        <v>3346.8262089999998</v>
       </c>
       <c r="AP24" s="1">
         <v>0.929674</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1233.100000</v>
+        <v>1233.0999999999999</v>
       </c>
       <c r="AR24" s="1">
-        <v>-98.805100</v>
+        <v>-98.805099999999996</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>3357.602571</v>
+        <v>3357.6025709999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>0.932667</v>
+        <v>0.93266700000000002</v>
       </c>
       <c r="AV24" s="1">
-        <v>1242.730000</v>
+        <v>1242.73</v>
       </c>
       <c r="AW24" s="1">
-        <v>-117.318000</v>
+        <v>-117.318</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
         <v>3368.222166</v>
       </c>
       <c r="AZ24" s="1">
-        <v>0.935617</v>
+        <v>0.93561700000000003</v>
       </c>
       <c r="BA24" s="1">
-        <v>1250.830000</v>
+        <v>1250.83</v>
       </c>
       <c r="BB24" s="1">
-        <v>-134.193000</v>
+        <v>-134.19300000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>3378.572152</v>
+        <v>3378.5721520000002</v>
       </c>
       <c r="BE24" s="1">
-        <v>0.938492</v>
+        <v>0.93849199999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1289.060000</v>
+        <v>1289.06</v>
       </c>
       <c r="BG24" s="1">
-        <v>-213.458000</v>
+        <v>-213.458</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>3389.966426</v>
       </c>
       <c r="BJ24" s="1">
-        <v>0.941657</v>
+        <v>0.94165699999999997</v>
       </c>
       <c r="BK24" s="1">
-        <v>1354.870000</v>
+        <v>1354.87</v>
       </c>
       <c r="BL24" s="1">
-        <v>-346.848000</v>
+        <v>-346.84800000000001</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>3400.193787</v>
+        <v>3400.1937870000002</v>
       </c>
       <c r="BO24" s="1">
-        <v>0.944498</v>
+        <v>0.94449799999999995</v>
       </c>
       <c r="BP24" s="1">
-        <v>1463.160000</v>
+        <v>1463.16</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-566.590000</v>
+        <v>-566.59</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>3410.847339</v>
+        <v>3410.8473389999999</v>
       </c>
       <c r="BT24" s="1">
-        <v>0.947458</v>
+        <v>0.94745800000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1589.730000</v>
+        <v>1589.73</v>
       </c>
       <c r="BV24" s="1">
-        <v>-816.753000</v>
+        <v>-816.75300000000004</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>3421.804477</v>
+        <v>3421.8044770000001</v>
       </c>
       <c r="BY24" s="1">
-        <v>0.950501</v>
+        <v>0.95050100000000004</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1735.940000</v>
+        <v>1735.94</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1090.370000</v>
+        <v>-1090.3699999999999</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>3435.015420</v>
+        <v>3435.0154200000002</v>
       </c>
       <c r="CD24" s="1">
-        <v>0.954171</v>
+        <v>0.95417099999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>2144.380000</v>
+        <v>2144.38</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1757.830000</v>
+        <v>-1757.83</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>3263.785503</v>
+        <v>3263.7855030000001</v>
       </c>
       <c r="B25" s="1">
-        <v>0.906607</v>
+        <v>0.90660700000000005</v>
       </c>
       <c r="C25" s="1">
-        <v>1138.480000</v>
+        <v>1138.48</v>
       </c>
       <c r="D25" s="1">
-        <v>-252.289000</v>
+        <v>-252.28899999999999</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>3274.178705</v>
+        <v>3274.1787049999998</v>
       </c>
       <c r="G25" s="1">
-        <v>0.909494</v>
+        <v>0.90949400000000002</v>
       </c>
       <c r="H25" s="1">
-        <v>1160.930000</v>
+        <v>1160.93</v>
       </c>
       <c r="I25" s="1">
-        <v>-213.387000</v>
+        <v>-213.387</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>3284.278708</v>
+        <v>3284.2787079999998</v>
       </c>
       <c r="L25" s="1">
-        <v>0.912300</v>
+        <v>0.9123</v>
       </c>
       <c r="M25" s="1">
-        <v>1189.780000</v>
+        <v>1189.78</v>
       </c>
       <c r="N25" s="1">
-        <v>-149.070000</v>
+        <v>-149.07</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>3295.127236</v>
+        <v>3295.1272359999998</v>
       </c>
       <c r="Q25" s="1">
-        <v>0.915313</v>
+        <v>0.91531300000000004</v>
       </c>
       <c r="R25" s="1">
-        <v>1198.220000</v>
+        <v>1198.22</v>
       </c>
       <c r="S25" s="1">
-        <v>-127.318000</v>
+        <v>-127.318</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>3305.585847</v>
+        <v>3305.5858469999998</v>
       </c>
       <c r="V25" s="1">
-        <v>0.918218</v>
+        <v>0.91821799999999998</v>
       </c>
       <c r="W25" s="1">
-        <v>1205.890000</v>
+        <v>1205.8900000000001</v>
       </c>
       <c r="X25" s="1">
-        <v>-106.574000</v>
+        <v>-106.574</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>3316.218090</v>
+        <v>3316.2180899999998</v>
       </c>
       <c r="AA25" s="1">
-        <v>0.921172</v>
+        <v>0.92117199999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>1213.740000</v>
+        <v>1213.74</v>
       </c>
       <c r="AC25" s="1">
-        <v>-89.333600</v>
+        <v>-89.333600000000004</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>3326.312703</v>
+        <v>3326.3127030000001</v>
       </c>
       <c r="AF25" s="1">
-        <v>0.923976</v>
+        <v>0.92397600000000002</v>
       </c>
       <c r="AG25" s="1">
-        <v>1218.300000</v>
+        <v>1218.3</v>
       </c>
       <c r="AH25" s="1">
-        <v>-84.693200</v>
+        <v>-84.693200000000004</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>3336.554558</v>
+        <v>3336.5545579999998</v>
       </c>
       <c r="AK25" s="1">
-        <v>0.926821</v>
+        <v>0.92682100000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1225.310000</v>
+        <v>1225.31</v>
       </c>
       <c r="AM25" s="1">
-        <v>-87.475500</v>
+        <v>-87.475499999999997</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>3347.188816</v>
+        <v>3347.1888159999999</v>
       </c>
       <c r="AP25" s="1">
-        <v>0.929775</v>
+        <v>0.92977500000000002</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1233.090000</v>
+        <v>1233.0899999999999</v>
       </c>
       <c r="AR25" s="1">
-        <v>-98.803800</v>
+        <v>-98.803799999999995</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>3357.968834</v>
+        <v>3357.9688339999998</v>
       </c>
       <c r="AU25" s="1">
-        <v>0.932769</v>
+        <v>0.93276899999999996</v>
       </c>
       <c r="AV25" s="1">
-        <v>1242.750000</v>
+        <v>1242.75</v>
       </c>
       <c r="AW25" s="1">
-        <v>-117.311000</v>
+        <v>-117.31100000000001</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
         <v>3368.631828</v>
       </c>
       <c r="AZ25" s="1">
-        <v>0.935731</v>
+        <v>0.93573099999999998</v>
       </c>
       <c r="BA25" s="1">
-        <v>1250.820000</v>
+        <v>1250.82</v>
       </c>
       <c r="BB25" s="1">
-        <v>-134.187000</v>
+        <v>-134.18700000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>3378.881687</v>
+        <v>3378.8816870000001</v>
       </c>
       <c r="BE25" s="1">
-        <v>0.938578</v>
+        <v>0.93857800000000002</v>
       </c>
       <c r="BF25" s="1">
-        <v>1289.050000</v>
+        <v>1289.05</v>
       </c>
       <c r="BG25" s="1">
-        <v>-213.482000</v>
+        <v>-213.482</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>3390.320391</v>
+        <v>3390.3203910000002</v>
       </c>
       <c r="BJ25" s="1">
-        <v>0.941756</v>
+        <v>0.94175600000000004</v>
       </c>
       <c r="BK25" s="1">
-        <v>1354.850000</v>
+        <v>1354.85</v>
       </c>
       <c r="BL25" s="1">
-        <v>-346.874000</v>
+        <v>-346.87400000000002</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>3400.613898</v>
+        <v>3400.6138980000001</v>
       </c>
       <c r="BO25" s="1">
-        <v>0.944615</v>
+        <v>0.94461499999999998</v>
       </c>
       <c r="BP25" s="1">
-        <v>1463.230000</v>
+        <v>1463.23</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-566.598000</v>
+        <v>-566.59799999999996</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>3411.258508</v>
+        <v>3411.2585079999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>0.947572</v>
+        <v>0.94757199999999997</v>
       </c>
       <c r="BU25" s="1">
-        <v>1589.710000</v>
+        <v>1589.71</v>
       </c>
       <c r="BV25" s="1">
-        <v>-816.742000</v>
+        <v>-816.74199999999996</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>3422.231020</v>
+        <v>3422.2310200000002</v>
       </c>
       <c r="BY25" s="1">
-        <v>0.950620</v>
+        <v>0.95062000000000002</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1735.920000</v>
+        <v>1735.92</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1090.460000</v>
+        <v>-1090.46</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>3435.556027</v>
+        <v>3435.5560270000001</v>
       </c>
       <c r="CD25" s="1">
-        <v>0.954321</v>
+        <v>0.95432099999999997</v>
       </c>
       <c r="CE25" s="1">
-        <v>2142.560000</v>
+        <v>2142.56</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1759.230000</v>
+        <v>-1759.23</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>3264.125790</v>
+        <v>3264.1257900000001</v>
       </c>
       <c r="B26" s="1">
-        <v>0.906702</v>
+        <v>0.90670200000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>1138.390000</v>
+        <v>1138.3900000000001</v>
       </c>
       <c r="D26" s="1">
-        <v>-252.511000</v>
+        <v>-252.511</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>3274.529840</v>
+        <v>3274.5298400000001</v>
       </c>
       <c r="G26" s="1">
-        <v>0.909592</v>
+        <v>0.90959199999999996</v>
       </c>
       <c r="H26" s="1">
-        <v>1160.570000</v>
+        <v>1160.57</v>
       </c>
       <c r="I26" s="1">
-        <v>-212.952000</v>
+        <v>-212.952</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>3284.923539</v>
+        <v>3284.9235389999999</v>
       </c>
       <c r="L26" s="1">
-        <v>0.912479</v>
+        <v>0.91247900000000004</v>
       </c>
       <c r="M26" s="1">
-        <v>1189.860000</v>
+        <v>1189.8599999999999</v>
       </c>
       <c r="N26" s="1">
-        <v>-148.904000</v>
+        <v>-148.904</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>3295.522020</v>
+        <v>3295.5220199999999</v>
       </c>
       <c r="Q26" s="1">
-        <v>0.915423</v>
+        <v>0.91542299999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>1198.170000</v>
+        <v>1198.17</v>
       </c>
       <c r="S26" s="1">
-        <v>-127.334000</v>
+        <v>-127.334</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>3305.962311</v>
+        <v>3305.9623110000002</v>
       </c>
       <c r="V26" s="1">
         <v>0.918323</v>
       </c>
       <c r="W26" s="1">
-        <v>1205.940000</v>
+        <v>1205.94</v>
       </c>
       <c r="X26" s="1">
-        <v>-106.532000</v>
+        <v>-106.532</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>3316.566778</v>
+        <v>3316.5667779999999</v>
       </c>
       <c r="AA26" s="1">
         <v>0.921269</v>
       </c>
       <c r="AB26" s="1">
-        <v>1213.610000</v>
+        <v>1213.6099999999999</v>
       </c>
       <c r="AC26" s="1">
-        <v>-89.382500</v>
+        <v>-89.382499999999993</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>3326.656395</v>
       </c>
       <c r="AF26" s="1">
-        <v>0.924071</v>
+        <v>0.92407099999999998</v>
       </c>
       <c r="AG26" s="1">
-        <v>1218.290000</v>
+        <v>1218.29</v>
       </c>
       <c r="AH26" s="1">
-        <v>-84.679100</v>
+        <v>-84.679100000000005</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>3336.905238</v>
+        <v>3336.9052379999998</v>
       </c>
       <c r="AK26" s="1">
-        <v>0.926918</v>
+        <v>0.92691800000000002</v>
       </c>
       <c r="AL26" s="1">
-        <v>1225.330000</v>
+        <v>1225.33</v>
       </c>
       <c r="AM26" s="1">
-        <v>-87.474400</v>
+        <v>-87.474400000000003</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>3347.609392</v>
+        <v>3347.6093919999998</v>
       </c>
       <c r="AP26" s="1">
-        <v>0.929891</v>
+        <v>0.92989100000000002</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1233.070000</v>
+        <v>1233.07</v>
       </c>
       <c r="AR26" s="1">
-        <v>-98.797500</v>
+        <v>-98.797499999999999</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>3358.393905</v>
+        <v>3358.3939049999999</v>
       </c>
       <c r="AU26" s="1">
-        <v>0.932887</v>
+        <v>0.93288700000000002</v>
       </c>
       <c r="AV26" s="1">
-        <v>1242.720000</v>
+        <v>1242.72</v>
       </c>
       <c r="AW26" s="1">
-        <v>-117.324000</v>
+        <v>-117.324</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>3368.940875</v>
+        <v>3368.9408749999998</v>
       </c>
       <c r="AZ26" s="1">
-        <v>0.935817</v>
+        <v>0.93581700000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1250.850000</v>
+        <v>1250.8499999999999</v>
       </c>
       <c r="BB26" s="1">
-        <v>-134.156000</v>
+        <v>-134.15600000000001</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>3379.242278</v>
+        <v>3379.2422780000002</v>
       </c>
       <c r="BE26" s="1">
-        <v>0.938678</v>
+        <v>0.93867800000000001</v>
       </c>
       <c r="BF26" s="1">
-        <v>1289.020000</v>
+        <v>1289.02</v>
       </c>
       <c r="BG26" s="1">
-        <v>-213.484000</v>
+        <v>-213.48400000000001</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>3390.691399</v>
+        <v>3390.6913989999998</v>
       </c>
       <c r="BJ26" s="1">
         <v>0.941859</v>
       </c>
       <c r="BK26" s="1">
-        <v>1354.860000</v>
+        <v>1354.86</v>
       </c>
       <c r="BL26" s="1">
-        <v>-346.895000</v>
+        <v>-346.89499999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>3401.009177</v>
+        <v>3401.0091769999999</v>
       </c>
       <c r="BO26" s="1">
-        <v>0.944725</v>
+        <v>0.94472500000000004</v>
       </c>
       <c r="BP26" s="1">
-        <v>1463.210000</v>
+        <v>1463.21</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-566.570000</v>
+        <v>-566.57000000000005</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>3411.689035</v>
+        <v>3411.6890349999999</v>
       </c>
       <c r="BT26" s="1">
-        <v>0.947691</v>
+        <v>0.94769099999999995</v>
       </c>
       <c r="BU26" s="1">
-        <v>1589.720000</v>
+        <v>1589.72</v>
       </c>
       <c r="BV26" s="1">
-        <v>-816.903000</v>
+        <v>-816.90300000000002</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>3422.647678</v>
+        <v>3422.6476779999998</v>
       </c>
       <c r="BY26" s="1">
         <v>0.950735</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1735.910000</v>
+        <v>1735.91</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1090.260000</v>
+        <v>-1090.26</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>3436.095774</v>
+        <v>3436.0957739999999</v>
       </c>
       <c r="CD26" s="1">
-        <v>0.954471</v>
+        <v>0.95447099999999996</v>
       </c>
       <c r="CE26" s="1">
-        <v>2145.430000</v>
+        <v>2145.4299999999998</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1758.720000</v>
+        <v>-1758.72</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>